--- a/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_4_14.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_4_14.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>381725.7255572537</v>
+        <v>375786.0103676622</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>19997574.02179435</v>
+        <v>19997574.02179436</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4902964.689084983</v>
+        <v>4902964.689084984</v>
       </c>
     </row>
     <row r="11">
@@ -656,76 +656,76 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R2" t="n">
         <v>39.58387696184059</v>
       </c>
-      <c r="C2" t="n">
+      <c r="S2" t="n">
         <v>39.58387696184059</v>
       </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R2" t="n">
-        <v>0</v>
-      </c>
-      <c r="S2" t="n">
-        <v>0</v>
-      </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>34.86547882798917</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>24.87477961344436</v>
       </c>
       <c r="Y2" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -747,16 +747,16 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>34.11888750173132</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="J3" t="n">
         <v>0.7465913262578567</v>
@@ -783,16 +783,16 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>34.11888750173132</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -905,7 +905,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>22.91618947337665</v>
       </c>
       <c r="G5" t="n">
         <v>39.58387696184059</v>
@@ -914,10 +914,10 @@
         <v>39.58387696184059</v>
       </c>
       <c r="I5" t="n">
-        <v>34.86547882798917</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -962,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -972,7 +972,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -993,10 +993,10 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>34.86547882798917</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1020,19 +1020,19 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="S6" t="n">
+        <v>0</v>
+      </c>
+      <c r="T6" t="n">
+        <v>0</v>
+      </c>
+      <c r="U6" t="n">
+        <v>0</v>
+      </c>
+      <c r="V6" t="n">
         <v>39.58387696184059</v>
-      </c>
-      <c r="T6" t="n">
-        <v>39.58387696184059</v>
-      </c>
-      <c r="U6" t="n">
-        <v>39.58387696184059</v>
-      </c>
-      <c r="V6" t="n">
-        <v>34.11888750173132</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
@@ -1057,53 +1057,53 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
         <v>39.58387696184059</v>
       </c>
-      <c r="E7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0</v>
-      </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>7.256111626157765</v>
       </c>
       <c r="I7" t="n">
-        <v>27.29193749722201</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P7" t="n">
+        <v>2.721440735106512</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>0</v>
+      </c>
+      <c r="R7" t="n">
+        <v>0</v>
+      </c>
+      <c r="S7" t="n">
         <v>39.58387696184059</v>
       </c>
-      <c r="K7" t="n">
-        <v>22.26949182588285</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O7" t="n">
-        <v>0</v>
-      </c>
-      <c r="P7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>0</v>
-      </c>
-      <c r="R7" t="n">
-        <v>0</v>
-      </c>
-      <c r="S7" t="n">
-        <v>0</v>
-      </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
@@ -1111,7 +1111,7 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1142,7 +1142,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>34.86547882798917</v>
+        <v>24.87477961344436</v>
       </c>
       <c r="G8" t="n">
         <v>39.58387696184059</v>
@@ -1175,7 +1175,7 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -1212,73 +1212,73 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>34.86547882798917</v>
       </c>
       <c r="E9" t="n">
-        <v>34.86547882798917</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
       </c>
       <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0</v>
+      </c>
+      <c r="R9" t="n">
+        <v>0</v>
+      </c>
+      <c r="S9" t="n">
+        <v>0</v>
+      </c>
+      <c r="T9" t="n">
         <v>39.58387696184059</v>
       </c>
-      <c r="H9" t="n">
+      <c r="U9" t="n">
+        <v>0</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="n">
+        <v>0</v>
+      </c>
+      <c r="X9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y9" t="n">
         <v>39.58387696184059</v>
-      </c>
-      <c r="I9" t="n">
-        <v>39.58387696184059</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>0</v>
-      </c>
-      <c r="R9" t="n">
-        <v>0</v>
-      </c>
-      <c r="S9" t="n">
-        <v>0</v>
-      </c>
-      <c r="T9" t="n">
-        <v>0</v>
-      </c>
-      <c r="U9" t="n">
-        <v>0</v>
-      </c>
-      <c r="V9" t="n">
-        <v>0</v>
-      </c>
-      <c r="W9" t="n">
-        <v>0</v>
-      </c>
-      <c r="X9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y9" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1288,68 +1288,68 @@
         </is>
       </c>
       <c r="B10" t="n">
+        <v>0</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" t="n">
+        <v>2.721440735106512</v>
+      </c>
+      <c r="Q10" t="n">
         <v>39.58387696184059</v>
       </c>
-      <c r="C10" t="n">
-        <v>0</v>
-      </c>
-      <c r="D10" t="n">
-        <v>0</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0</v>
-      </c>
-      <c r="F10" t="n">
-        <v>0</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" t="n">
-        <v>9.977552361264268</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" t="n">
-        <v>0</v>
-      </c>
-      <c r="P10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>0</v>
-      </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="S10" t="n">
+        <v>0</v>
+      </c>
+      <c r="T10" t="n">
+        <v>0</v>
+      </c>
+      <c r="U10" t="n">
+        <v>0</v>
+      </c>
+      <c r="V10" t="n">
         <v>39.58387696184059</v>
       </c>
-      <c r="T10" t="n">
-        <v>39.58387696184059</v>
-      </c>
-      <c r="U10" t="n">
-        <v>0</v>
-      </c>
-      <c r="V10" t="n">
-        <v>0</v>
-      </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
@@ -1357,7 +1357,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>7.256111626157765</v>
       </c>
     </row>
     <row r="11">
@@ -1382,7 +1382,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>34.86547882798917</v>
       </c>
       <c r="H11" t="n">
         <v>39.58387696184059</v>
@@ -1412,13 +1412,13 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>24.87477961344436</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="S11" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -1446,56 +1446,56 @@
         </is>
       </c>
       <c r="B12" t="n">
+        <v>0</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" t="n">
+        <v>39.58387696184059</v>
+      </c>
+      <c r="F12" t="n">
+        <v>39.58387696184059</v>
+      </c>
+      <c r="G12" t="n">
         <v>34.86547882798917</v>
       </c>
-      <c r="C12" t="n">
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>0</v>
+      </c>
+      <c r="R12" t="n">
         <v>39.58387696184059</v>
       </c>
-      <c r="D12" t="n">
-        <v>39.58387696184059</v>
-      </c>
-      <c r="E12" t="n">
-        <v>0</v>
-      </c>
-      <c r="F12" t="n">
-        <v>0</v>
-      </c>
-      <c r="G12" t="n">
-        <v>0</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="n">
-        <v>0</v>
-      </c>
-      <c r="K12" t="n">
-        <v>0</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0</v>
-      </c>
-      <c r="O12" t="n">
-        <v>0</v>
-      </c>
-      <c r="P12" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>0</v>
-      </c>
-      <c r="R12" t="n">
-        <v>0</v>
-      </c>
       <c r="S12" t="n">
         <v>0</v>
       </c>
@@ -1515,7 +1515,7 @@
         <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1525,7 +1525,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1540,13 +1540,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>9.977552361264268</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="J13" t="n">
         <v>39.58387696184059</v>
@@ -1585,16 +1585,16 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>9.977552361264268</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1619,13 +1619,13 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>34.86547882798917</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="I14" t="n">
-        <v>24.87477961344436</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1649,22 +1649,22 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -1683,26 +1683,26 @@
         </is>
       </c>
       <c r="B15" t="n">
+        <v>0</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" t="n">
+        <v>34.86547882798917</v>
+      </c>
+      <c r="H15" t="n">
         <v>39.58387696184059</v>
       </c>
-      <c r="C15" t="n">
-        <v>0</v>
-      </c>
-      <c r="D15" t="n">
-        <v>0</v>
-      </c>
-      <c r="E15" t="n">
-        <v>0</v>
-      </c>
-      <c r="F15" t="n">
-        <v>0</v>
-      </c>
-      <c r="G15" t="n">
-        <v>0</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
@@ -1731,10 +1731,10 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="T15" t="n">
         <v>0</v>
@@ -1746,13 +1746,13 @@
         <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>34.86547882798917</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -1789,7 +1789,7 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>9.977552361264268</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -1804,31 +1804,31 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
+        <v>0</v>
+      </c>
+      <c r="R16" t="n">
+        <v>0</v>
+      </c>
+      <c r="S16" t="n">
         <v>39.58387696184059</v>
       </c>
-      <c r="R16" t="n">
-        <v>0</v>
-      </c>
-      <c r="S16" t="n">
-        <v>0</v>
-      </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="V16" t="n">
-        <v>7.256111626157765</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1853,13 +1853,13 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>38.87161743162455</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -1901,16 +1901,16 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>38.87161743162454</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1932,7 +1932,7 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>38.87161743162454</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
@@ -1977,7 +1977,7 @@
         <v>44.13217237922859</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>38.87161743162454</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -1999,55 +1999,55 @@
         </is>
       </c>
       <c r="B19" t="n">
+        <v>0.790450447682262</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0</v>
+      </c>
+      <c r="O19" t="n">
+        <v>0</v>
+      </c>
+      <c r="P19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>0</v>
+      </c>
+      <c r="R19" t="n">
         <v>44.13217237922859</v>
-      </c>
-      <c r="C19" t="n">
-        <v>0</v>
-      </c>
-      <c r="D19" t="n">
-        <v>0</v>
-      </c>
-      <c r="E19" t="n">
-        <v>0.790450447682262</v>
-      </c>
-      <c r="F19" t="n">
-        <v>0</v>
-      </c>
-      <c r="G19" t="n">
-        <v>0</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>0</v>
-      </c>
-      <c r="K19" t="n">
-        <v>0</v>
-      </c>
-      <c r="L19" t="n">
-        <v>0</v>
-      </c>
-      <c r="M19" t="n">
-        <v>0</v>
-      </c>
-      <c r="N19" t="n">
-        <v>0</v>
-      </c>
-      <c r="O19" t="n">
-        <v>0</v>
-      </c>
-      <c r="P19" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>0</v>
-      </c>
-      <c r="R19" t="n">
-        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -2078,7 +2078,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -2087,22 +2087,22 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>40.47627913313511</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -2123,13 +2123,13 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R20" t="n">
-        <v>3.265316057196634</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S20" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -2141,13 +2141,13 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2157,7 +2157,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>29.79900896488263</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
@@ -2211,7 +2211,7 @@
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
         <v>225.9413820809748</v>
@@ -2223,7 +2223,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X21" t="n">
-        <v>35.40726547353844</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
         <v>0</v>
@@ -2290,7 +2290,7 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -2305,7 +2305,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2360,7 +2360,7 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -2369,13 +2369,13 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>202.2946864288972</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>212.285385643442</v>
       </c>
       <c r="W23" t="n">
         <v>241.0142888776591</v>
@@ -2384,7 +2384,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="24">
@@ -2445,22 +2445,22 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U24" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>168.0500184703206</v>
       </c>
       <c r="W24" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X24" t="n">
-        <v>196.5315760613044</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
         <v>0</v>
@@ -2473,7 +2473,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2518,10 +2518,10 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>47.02492433367362</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -2552,10 +2552,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -2567,61 +2567,61 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0</v>
+      </c>
+      <c r="P26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>0</v>
+      </c>
+      <c r="R26" t="n">
+        <v>0</v>
+      </c>
+      <c r="S26" t="n">
+        <v>0</v>
+      </c>
+      <c r="T26" t="n">
+        <v>0</v>
+      </c>
+      <c r="U26" t="n">
+        <v>0</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="H26" t="n">
+      <c r="X26" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>0</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0</v>
-      </c>
-      <c r="L26" t="n">
-        <v>0</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0</v>
-      </c>
-      <c r="N26" t="n">
-        <v>0</v>
-      </c>
-      <c r="O26" t="n">
-        <v>0</v>
-      </c>
-      <c r="P26" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>0</v>
-      </c>
-      <c r="R26" t="n">
-        <v>0</v>
-      </c>
-      <c r="S26" t="n">
-        <v>0</v>
-      </c>
-      <c r="T26" t="n">
-        <v>0</v>
-      </c>
-      <c r="U26" t="n">
-        <v>0</v>
-      </c>
-      <c r="V26" t="n">
-        <v>0</v>
-      </c>
-      <c r="W26" t="n">
-        <v>212.285385643442</v>
-      </c>
-      <c r="X26" t="n">
-        <v>0</v>
-      </c>
       <c r="Y26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2637,22 +2637,22 @@
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>93.47363648169059</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2682,19 +2682,19 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>35.40726547353833</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U27" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X27" t="n">
         <v>0</v>
@@ -2789,10 +2789,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="C29" t="n">
-        <v>234.288905720311</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -2801,10 +2801,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="F29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="G29" t="n">
-        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -2858,7 +2858,7 @@
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="30">
@@ -2919,7 +2919,7 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>29.8892983910557</v>
       </c>
       <c r="T30" t="n">
         <v>0</v>
@@ -2931,10 +2931,10 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
-        <v>65.13060206523731</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X30" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
         <v>205.6826957773044</v>
@@ -3004,10 +3004,10 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
+        <v>0</v>
+      </c>
+      <c r="V31" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="V31" t="n">
-        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C32" t="n">
         <v>241.0142888776591</v>
@@ -3035,7 +3035,7 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
@@ -3050,7 +3050,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>3.26531605719669</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -3077,22 +3077,22 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T32" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -3105,10 +3105,10 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
         <v>0</v>
@@ -3123,13 +3123,13 @@
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>0.9634147202719892</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -3156,22 +3156,22 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
-        <v>18.20565100525321</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U33" t="n">
         <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
         <v>0</v>
       </c>
       <c r="X33" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
         <v>205.6826957773044</v>
@@ -3190,13 +3190,13 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -3266,25 +3266,25 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
+        <v>0</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0</v>
+      </c>
+      <c r="E35" t="n">
+        <v>212.2853856434421</v>
+      </c>
+      <c r="F35" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D35" t="n">
-        <v>0</v>
-      </c>
-      <c r="E35" t="n">
-        <v>0</v>
-      </c>
-      <c r="F35" t="n">
-        <v>0</v>
-      </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>3.26531605719669</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -3323,7 +3323,7 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -3351,7 +3351,7 @@
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
@@ -3360,13 +3360,13 @@
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>63.88882306452232</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -3390,25 +3390,25 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
-        <v>171.6831711038378</v>
+        <v>44.89965036284323</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U36" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V36" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
         <v>0</v>
@@ -3469,19 +3469,19 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
+        <v>0</v>
+      </c>
+      <c r="S37" t="n">
+        <v>0</v>
+      </c>
+      <c r="T37" t="n">
+        <v>0</v>
+      </c>
+      <c r="U37" t="n">
+        <v>0</v>
+      </c>
+      <c r="V37" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="S37" t="n">
-        <v>0</v>
-      </c>
-      <c r="T37" t="n">
-        <v>0</v>
-      </c>
-      <c r="U37" t="n">
-        <v>0</v>
-      </c>
-      <c r="V37" t="n">
-        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -3503,13 +3503,13 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D38" t="n">
-        <v>90.38893773807641</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -3524,7 +3524,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -3545,22 +3545,22 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>212.285385643442</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -3579,13 +3579,13 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>103.5611725900397</v>
       </c>
       <c r="C39" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
         <v>0</v>
@@ -3627,25 +3627,25 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
-        <v>98.19508828039909</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
         <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
         <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
         <v>205.6826957773044</v>
@@ -3709,7 +3709,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -3718,7 +3718,7 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -3737,16 +3737,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>236.4659934602711</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>198.2885478252618</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>236.4659934602711</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -3758,7 +3758,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3782,28 +3782,28 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
+        <v>0</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="n">
+        <v>0</v>
+      </c>
+      <c r="X41" t="n">
         <v>236.4659934602711</v>
-      </c>
-      <c r="V41" t="n">
-        <v>38.61942523956608</v>
-      </c>
-      <c r="W41" t="n">
-        <v>0</v>
-      </c>
-      <c r="X41" t="n">
-        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -3822,16 +3822,16 @@
         <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>84.37915624048011</v>
+        <v>39.64918736910003</v>
       </c>
       <c r="G42" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3840,7 +3840,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -3864,10 +3864,10 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T42" t="n">
         <v>0</v>
@@ -3879,7 +3879,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
-        <v>236.4659934602711</v>
+        <v>0</v>
       </c>
       <c r="X42" t="n">
         <v>0</v>
@@ -3910,49 +3910,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
+        <v>0</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0</v>
+      </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
+      <c r="K43" t="n">
+        <v>0</v>
+      </c>
+      <c r="L43" t="n">
+        <v>0</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0</v>
+      </c>
+      <c r="N43" t="n">
+        <v>0</v>
+      </c>
+      <c r="O43" t="n">
+        <v>0</v>
+      </c>
+      <c r="P43" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>0</v>
+      </c>
+      <c r="R43" t="n">
+        <v>0</v>
+      </c>
+      <c r="S43" t="n">
+        <v>0</v>
+      </c>
+      <c r="T43" t="n">
+        <v>0</v>
+      </c>
+      <c r="U43" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
-      <c r="J43" t="n">
-        <v>0</v>
-      </c>
-      <c r="K43" t="n">
-        <v>0</v>
-      </c>
-      <c r="L43" t="n">
-        <v>0</v>
-      </c>
-      <c r="M43" t="n">
-        <v>0</v>
-      </c>
-      <c r="N43" t="n">
-        <v>0</v>
-      </c>
-      <c r="O43" t="n">
-        <v>0</v>
-      </c>
-      <c r="P43" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q43" t="n">
-        <v>0</v>
-      </c>
-      <c r="R43" t="n">
-        <v>0</v>
-      </c>
-      <c r="S43" t="n">
-        <v>0</v>
-      </c>
-      <c r="T43" t="n">
-        <v>0</v>
-      </c>
-      <c r="U43" t="n">
-        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -4019,19 +4019,19 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R44" t="n">
-        <v>34.86547882798917</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>39.58387696184059</v>
+        <v>24.87477961344436</v>
       </c>
       <c r="T44" t="n">
         <v>39.58387696184059</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="V44" t="n">
         <v>39.58387696184059</v>
@@ -4053,13 +4053,13 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="E45" t="n">
         <v>0</v>
@@ -4107,22 +4107,22 @@
         <v>0</v>
       </c>
       <c r="T45" t="n">
+        <v>0</v>
+      </c>
+      <c r="U45" t="n">
+        <v>0</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="n">
+        <v>0</v>
+      </c>
+      <c r="X45" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y45" t="n">
         <v>34.86547882798917</v>
-      </c>
-      <c r="U45" t="n">
-        <v>39.58387696184059</v>
-      </c>
-      <c r="V45" t="n">
-        <v>39.58387696184059</v>
-      </c>
-      <c r="W45" t="n">
-        <v>0</v>
-      </c>
-      <c r="X45" t="n">
-        <v>39.58387696184059</v>
-      </c>
-      <c r="Y45" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -4135,55 +4135,55 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
+        <v>0</v>
+      </c>
+      <c r="D46" t="n">
+        <v>0</v>
+      </c>
+      <c r="E46" t="n">
+        <v>0</v>
+      </c>
+      <c r="F46" t="n">
+        <v>0</v>
+      </c>
+      <c r="G46" t="n">
         <v>39.58387696184059</v>
       </c>
-      <c r="D46" t="n">
-        <v>0</v>
-      </c>
-      <c r="E46" t="n">
-        <v>39.58387696184059</v>
-      </c>
-      <c r="F46" t="n">
-        <v>0</v>
-      </c>
-      <c r="G46" t="n">
-        <v>0</v>
-      </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
+        <v>0</v>
+      </c>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
+      <c r="K46" t="n">
+        <v>0</v>
+      </c>
+      <c r="L46" t="n">
+        <v>0</v>
+      </c>
+      <c r="M46" t="n">
+        <v>0</v>
+      </c>
+      <c r="N46" t="n">
+        <v>0</v>
+      </c>
+      <c r="O46" t="n">
+        <v>0</v>
+      </c>
+      <c r="P46" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>0</v>
+      </c>
+      <c r="R46" t="n">
+        <v>0</v>
+      </c>
+      <c r="S46" t="n">
         <v>9.977552361264268</v>
-      </c>
-      <c r="J46" t="n">
-        <v>0</v>
-      </c>
-      <c r="K46" t="n">
-        <v>0</v>
-      </c>
-      <c r="L46" t="n">
-        <v>0</v>
-      </c>
-      <c r="M46" t="n">
-        <v>0</v>
-      </c>
-      <c r="N46" t="n">
-        <v>0</v>
-      </c>
-      <c r="O46" t="n">
-        <v>0</v>
-      </c>
-      <c r="P46" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q46" t="n">
-        <v>0</v>
-      </c>
-      <c r="R46" t="n">
-        <v>0</v>
-      </c>
-      <c r="S46" t="n">
-        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -4195,7 +4195,7 @@
         <v>39.58387696184059</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4304,7 +4304,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>43.15042425981653</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="C2" t="n">
         <v>3.166710156947247</v>
@@ -4331,49 +4331,49 @@
         <v>3.166710156947247</v>
       </c>
       <c r="K2" t="n">
+        <v>3.166710156947247</v>
+      </c>
+      <c r="L2" t="n">
+        <v>3.166710156947247</v>
+      </c>
+      <c r="M2" t="n">
         <v>42.35474834916943</v>
       </c>
-      <c r="L2" t="n">
+      <c r="N2" t="n">
         <v>81.54278654139161</v>
       </c>
-      <c r="M2" t="n">
-        <v>119.1474696551402</v>
-      </c>
-      <c r="N2" t="n">
-        <v>119.1474696551402</v>
-      </c>
       <c r="O2" t="n">
-        <v>119.1474696551402</v>
+        <v>120.7308247336138</v>
       </c>
       <c r="P2" t="n">
         <v>158.3355078473624</v>
       </c>
       <c r="Q2" t="n">
-        <v>158.3355078473624</v>
+        <v>148.2438924791353</v>
       </c>
       <c r="R2" t="n">
-        <v>158.3355078473624</v>
+        <v>108.260178376266</v>
       </c>
       <c r="S2" t="n">
-        <v>158.3355078473624</v>
+        <v>68.2764642733967</v>
       </c>
       <c r="T2" t="n">
-        <v>158.3355078473624</v>
+        <v>28.29275017052741</v>
       </c>
       <c r="U2" t="n">
-        <v>158.3355078473624</v>
+        <v>28.29275017052741</v>
       </c>
       <c r="V2" t="n">
-        <v>123.1178524655551</v>
+        <v>28.29275017052741</v>
       </c>
       <c r="W2" t="n">
-        <v>123.1178524655551</v>
+        <v>28.29275017052741</v>
       </c>
       <c r="X2" t="n">
-        <v>123.1178524655551</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="Y2" t="n">
-        <v>83.13413836268582</v>
+        <v>3.166710156947247</v>
       </c>
     </row>
     <row r="3">
@@ -4383,25 +4383,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>3.920842809732961</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="C3" t="n">
-        <v>3.920842809732961</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="D3" t="n">
-        <v>3.920842809732961</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="E3" t="n">
-        <v>3.920842809732961</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="F3" t="n">
-        <v>3.920842809732961</v>
+        <v>123.8719851183408</v>
       </c>
       <c r="G3" t="n">
-        <v>3.920842809732961</v>
+        <v>83.88827101547153</v>
       </c>
       <c r="H3" t="n">
-        <v>3.920842809732961</v>
+        <v>43.90455691260225</v>
       </c>
       <c r="I3" t="n">
         <v>3.920842809732961</v>
@@ -4410,49 +4410,49 @@
         <v>3.166710156947247</v>
       </c>
       <c r="K3" t="n">
-        <v>40.77139327069581</v>
+        <v>42.35474834916943</v>
       </c>
       <c r="L3" t="n">
-        <v>40.77139327069581</v>
+        <v>81.54278654139161</v>
       </c>
       <c r="M3" t="n">
-        <v>40.77139327069581</v>
+        <v>120.7308247336138</v>
       </c>
       <c r="N3" t="n">
-        <v>40.77139327069581</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="O3" t="n">
-        <v>79.95943146291799</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="P3" t="n">
-        <v>119.1474696551402</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="Q3" t="n">
         <v>158.3355078473624</v>
       </c>
       <c r="R3" t="n">
-        <v>118.3517937444931</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="S3" t="n">
-        <v>78.36807964162378</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="T3" t="n">
-        <v>38.38436553875449</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="U3" t="n">
-        <v>3.920842809732961</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="V3" t="n">
-        <v>3.920842809732961</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="W3" t="n">
-        <v>3.920842809732961</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="X3" t="n">
-        <v>3.920842809732961</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="Y3" t="n">
-        <v>3.920842809732961</v>
+        <v>158.3355078473624</v>
       </c>
     </row>
     <row r="4">
@@ -4541,46 +4541,46 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>118.3517937444931</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="C5" t="n">
-        <v>118.3517937444931</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="D5" t="n">
-        <v>118.3517937444931</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="E5" t="n">
-        <v>118.3517937444931</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="F5" t="n">
-        <v>118.3517937444931</v>
+        <v>135.1878417126385</v>
       </c>
       <c r="G5" t="n">
-        <v>78.36807964162378</v>
+        <v>95.20412760976917</v>
       </c>
       <c r="H5" t="n">
-        <v>38.38436553875449</v>
+        <v>55.22041350689989</v>
       </c>
       <c r="I5" t="n">
-        <v>3.166710156947247</v>
+        <v>15.2366994040306</v>
       </c>
       <c r="J5" t="n">
         <v>3.166710156947247</v>
       </c>
       <c r="K5" t="n">
-        <v>40.77139327069581</v>
+        <v>42.35474834916943</v>
       </c>
       <c r="L5" t="n">
-        <v>79.95943146291799</v>
+        <v>81.54278654139161</v>
       </c>
       <c r="M5" t="n">
-        <v>119.1474696551402</v>
+        <v>120.7308247336138</v>
       </c>
       <c r="N5" t="n">
-        <v>119.1474696551402</v>
+        <v>120.7308247336138</v>
       </c>
       <c r="O5" t="n">
-        <v>119.1474696551402</v>
+        <v>120.7308247336138</v>
       </c>
       <c r="P5" t="n">
         <v>158.3355078473624</v>
@@ -4610,7 +4610,7 @@
         <v>158.3355078473624</v>
       </c>
       <c r="Y5" t="n">
-        <v>118.3517937444931</v>
+        <v>158.3355078473624</v>
       </c>
     </row>
     <row r="6">
@@ -4620,28 +4620,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3.920842809732961</v>
+        <v>38.38436553875449</v>
       </c>
       <c r="C6" t="n">
-        <v>3.920842809732961</v>
+        <v>38.38436553875449</v>
       </c>
       <c r="D6" t="n">
-        <v>3.920842809732961</v>
+        <v>38.38436553875449</v>
       </c>
       <c r="E6" t="n">
-        <v>3.920842809732961</v>
+        <v>38.38436553875449</v>
       </c>
       <c r="F6" t="n">
-        <v>3.920842809732961</v>
+        <v>38.38436553875449</v>
       </c>
       <c r="G6" t="n">
-        <v>3.920842809732961</v>
+        <v>38.38436553875449</v>
       </c>
       <c r="H6" t="n">
-        <v>3.920842809732961</v>
+        <v>38.38436553875449</v>
       </c>
       <c r="I6" t="n">
-        <v>3.920842809732961</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="J6" t="n">
         <v>3.166710156947247</v>
@@ -4650,16 +4650,16 @@
         <v>3.166710156947247</v>
       </c>
       <c r="L6" t="n">
-        <v>42.35474834916943</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="M6" t="n">
-        <v>81.54278654139161</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="N6" t="n">
-        <v>119.1474696551402</v>
+        <v>40.77139327069581</v>
       </c>
       <c r="O6" t="n">
-        <v>119.1474696551402</v>
+        <v>79.95943146291799</v>
       </c>
       <c r="P6" t="n">
         <v>119.1474696551402</v>
@@ -4668,28 +4668,28 @@
         <v>158.3355078473624</v>
       </c>
       <c r="R6" t="n">
-        <v>158.3355078473624</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="S6" t="n">
         <v>118.3517937444931</v>
       </c>
       <c r="T6" t="n">
+        <v>118.3517937444931</v>
+      </c>
+      <c r="U6" t="n">
+        <v>118.3517937444931</v>
+      </c>
+      <c r="V6" t="n">
         <v>78.36807964162378</v>
       </c>
-      <c r="U6" t="n">
-        <v>38.38436553875449</v>
-      </c>
-      <c r="V6" t="n">
-        <v>3.920842809732961</v>
-      </c>
       <c r="W6" t="n">
-        <v>3.920842809732961</v>
+        <v>78.36807964162378</v>
       </c>
       <c r="X6" t="n">
-        <v>3.920842809732961</v>
+        <v>78.36807964162378</v>
       </c>
       <c r="Y6" t="n">
-        <v>3.920842809732961</v>
+        <v>78.36807964162378</v>
       </c>
     </row>
     <row r="7">
@@ -4699,31 +4699,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>133.1961881840039</v>
+        <v>50.47982994280417</v>
       </c>
       <c r="C7" t="n">
-        <v>133.1961881840039</v>
+        <v>50.47982994280417</v>
       </c>
       <c r="D7" t="n">
-        <v>93.21247408113457</v>
+        <v>50.47982994280417</v>
       </c>
       <c r="E7" t="n">
-        <v>93.21247408113457</v>
+        <v>50.47982994280417</v>
       </c>
       <c r="F7" t="n">
-        <v>93.21247408113457</v>
+        <v>10.49611583993489</v>
       </c>
       <c r="G7" t="n">
-        <v>93.21247408113457</v>
+        <v>10.49611583993489</v>
       </c>
       <c r="H7" t="n">
-        <v>93.21247408113457</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="I7" t="n">
-        <v>65.64486044757699</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="J7" t="n">
-        <v>25.66114634470771</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="K7" t="n">
         <v>3.166710156947247</v>
@@ -4741,34 +4741,34 @@
         <v>133.1961881840039</v>
       </c>
       <c r="P7" t="n">
-        <v>133.1961881840039</v>
+        <v>130.4472581485427</v>
       </c>
       <c r="Q7" t="n">
-        <v>133.1961881840039</v>
+        <v>130.4472581485427</v>
       </c>
       <c r="R7" t="n">
-        <v>133.1961881840039</v>
+        <v>130.4472581485427</v>
       </c>
       <c r="S7" t="n">
-        <v>133.1961881840039</v>
+        <v>90.46354404567346</v>
       </c>
       <c r="T7" t="n">
-        <v>133.1961881840039</v>
+        <v>90.46354404567346</v>
       </c>
       <c r="U7" t="n">
-        <v>133.1961881840039</v>
+        <v>90.46354404567346</v>
       </c>
       <c r="V7" t="n">
-        <v>133.1961881840039</v>
+        <v>50.47982994280417</v>
       </c>
       <c r="W7" t="n">
-        <v>133.1961881840039</v>
+        <v>50.47982994280417</v>
       </c>
       <c r="X7" t="n">
-        <v>133.1961881840039</v>
+        <v>50.47982994280417</v>
       </c>
       <c r="Y7" t="n">
-        <v>133.1961881840039</v>
+        <v>50.47982994280417</v>
       </c>
     </row>
     <row r="8">
@@ -4778,16 +4778,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>158.3355078473624</v>
+        <v>148.2438924791353</v>
       </c>
       <c r="C8" t="n">
-        <v>158.3355078473624</v>
+        <v>148.2438924791353</v>
       </c>
       <c r="D8" t="n">
-        <v>158.3355078473624</v>
+        <v>148.2438924791353</v>
       </c>
       <c r="E8" t="n">
-        <v>158.3355078473624</v>
+        <v>148.2438924791353</v>
       </c>
       <c r="F8" t="n">
         <v>123.1178524655551</v>
@@ -4808,13 +4808,13 @@
         <v>3.166710156947247</v>
       </c>
       <c r="L8" t="n">
+        <v>3.166710156947247</v>
+      </c>
+      <c r="M8" t="n">
         <v>40.77139327069581</v>
       </c>
-      <c r="M8" t="n">
+      <c r="N8" t="n">
         <v>79.95943146291799</v>
-      </c>
-      <c r="N8" t="n">
-        <v>119.1474696551402</v>
       </c>
       <c r="O8" t="n">
         <v>119.1474696551402</v>
@@ -4823,31 +4823,31 @@
         <v>158.3355078473624</v>
       </c>
       <c r="Q8" t="n">
-        <v>158.3355078473624</v>
+        <v>148.2438924791353</v>
       </c>
       <c r="R8" t="n">
-        <v>158.3355078473624</v>
+        <v>148.2438924791353</v>
       </c>
       <c r="S8" t="n">
-        <v>158.3355078473624</v>
+        <v>148.2438924791353</v>
       </c>
       <c r="T8" t="n">
-        <v>158.3355078473624</v>
+        <v>148.2438924791353</v>
       </c>
       <c r="U8" t="n">
-        <v>158.3355078473624</v>
+        <v>148.2438924791353</v>
       </c>
       <c r="V8" t="n">
-        <v>158.3355078473624</v>
+        <v>148.2438924791353</v>
       </c>
       <c r="W8" t="n">
-        <v>158.3355078473624</v>
+        <v>148.2438924791353</v>
       </c>
       <c r="X8" t="n">
-        <v>158.3355078473624</v>
+        <v>148.2438924791353</v>
       </c>
       <c r="Y8" t="n">
-        <v>158.3355078473624</v>
+        <v>148.2438924791353</v>
       </c>
     </row>
     <row r="9">
@@ -4857,25 +4857,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>158.3355078473624</v>
+        <v>78.36807964162378</v>
       </c>
       <c r="C9" t="n">
-        <v>158.3355078473624</v>
+        <v>38.38436553875449</v>
       </c>
       <c r="D9" t="n">
-        <v>158.3355078473624</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="E9" t="n">
-        <v>123.1178524655551</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="F9" t="n">
-        <v>123.1178524655551</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="G9" t="n">
-        <v>83.13413836268582</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="H9" t="n">
-        <v>43.15042425981653</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="I9" t="n">
         <v>3.166710156947247</v>
@@ -4887,13 +4887,13 @@
         <v>42.35474834916943</v>
       </c>
       <c r="L9" t="n">
-        <v>81.54278654139161</v>
+        <v>79.95943146291799</v>
       </c>
       <c r="M9" t="n">
-        <v>119.1474696551402</v>
+        <v>79.95943146291799</v>
       </c>
       <c r="N9" t="n">
-        <v>119.1474696551402</v>
+        <v>79.95943146291799</v>
       </c>
       <c r="O9" t="n">
         <v>119.1474696551402</v>
@@ -4911,22 +4911,22 @@
         <v>158.3355078473624</v>
       </c>
       <c r="T9" t="n">
-        <v>158.3355078473624</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="U9" t="n">
-        <v>158.3355078473624</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="V9" t="n">
-        <v>158.3355078473624</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="W9" t="n">
-        <v>158.3355078473624</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="X9" t="n">
-        <v>158.3355078473624</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="Y9" t="n">
-        <v>158.3355078473624</v>
+        <v>78.36807964162378</v>
       </c>
     </row>
     <row r="10">
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>13.245045875396</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="C10" t="n">
-        <v>13.245045875396</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="D10" t="n">
-        <v>13.245045875396</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="E10" t="n">
-        <v>13.245045875396</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="F10" t="n">
-        <v>13.245045875396</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="G10" t="n">
-        <v>13.245045875396</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="H10" t="n">
-        <v>13.245045875396</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="I10" t="n">
-        <v>13.245045875396</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="J10" t="n">
-        <v>13.245045875396</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="K10" t="n">
         <v>3.166710156947247</v>
@@ -4978,34 +4978,34 @@
         <v>133.1961881840039</v>
       </c>
       <c r="P10" t="n">
-        <v>133.1961881840039</v>
+        <v>130.4472581485427</v>
       </c>
       <c r="Q10" t="n">
-        <v>133.1961881840039</v>
+        <v>90.46354404567346</v>
       </c>
       <c r="R10" t="n">
-        <v>133.1961881840039</v>
+        <v>50.47982994280417</v>
       </c>
       <c r="S10" t="n">
-        <v>93.21247408113457</v>
+        <v>50.47982994280417</v>
       </c>
       <c r="T10" t="n">
-        <v>53.22875997826529</v>
+        <v>50.47982994280417</v>
       </c>
       <c r="U10" t="n">
-        <v>53.22875997826529</v>
+        <v>50.47982994280417</v>
       </c>
       <c r="V10" t="n">
-        <v>53.22875997826529</v>
+        <v>10.49611583993489</v>
       </c>
       <c r="W10" t="n">
-        <v>53.22875997826529</v>
+        <v>10.49611583993489</v>
       </c>
       <c r="X10" t="n">
-        <v>53.22875997826529</v>
+        <v>10.49611583993489</v>
       </c>
       <c r="Y10" t="n">
-        <v>53.22875997826529</v>
+        <v>3.166710156947247</v>
       </c>
     </row>
     <row r="11">
@@ -5015,19 +5015,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>83.13413836268582</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="C11" t="n">
-        <v>83.13413836268582</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="D11" t="n">
-        <v>83.13413836268582</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="E11" t="n">
-        <v>83.13413836268582</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="F11" t="n">
-        <v>83.13413836268582</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="G11" t="n">
         <v>83.13413836268582</v>
@@ -5042,10 +5042,10 @@
         <v>3.166710156947247</v>
       </c>
       <c r="K11" t="n">
-        <v>3.166710156947247</v>
+        <v>42.35474834916943</v>
       </c>
       <c r="L11" t="n">
-        <v>42.35474834916943</v>
+        <v>81.54278654139161</v>
       </c>
       <c r="M11" t="n">
         <v>81.54278654139161</v>
@@ -5060,31 +5060,31 @@
         <v>158.3355078473624</v>
       </c>
       <c r="Q11" t="n">
-        <v>148.2438924791353</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="R11" t="n">
-        <v>123.1178524655551</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="S11" t="n">
-        <v>83.13413836268582</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="T11" t="n">
-        <v>83.13413836268582</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="U11" t="n">
-        <v>83.13413836268582</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="V11" t="n">
-        <v>83.13413836268582</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="W11" t="n">
-        <v>83.13413836268582</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="X11" t="n">
-        <v>83.13413836268582</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="Y11" t="n">
-        <v>83.13413836268582</v>
+        <v>118.3517937444931</v>
       </c>
     </row>
     <row r="12">
@@ -5094,19 +5094,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>83.13413836268582</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="C12" t="n">
-        <v>43.15042425981653</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="D12" t="n">
-        <v>3.166710156947247</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="E12" t="n">
-        <v>3.166710156947247</v>
+        <v>78.36807964162378</v>
       </c>
       <c r="F12" t="n">
-        <v>3.166710156947247</v>
+        <v>38.38436553875449</v>
       </c>
       <c r="G12" t="n">
         <v>3.166710156947247</v>
@@ -5124,16 +5124,16 @@
         <v>42.35474834916943</v>
       </c>
       <c r="L12" t="n">
-        <v>81.54278654139161</v>
+        <v>79.95943146291799</v>
       </c>
       <c r="M12" t="n">
+        <v>79.95943146291799</v>
+      </c>
+      <c r="N12" t="n">
+        <v>79.95943146291799</v>
+      </c>
+      <c r="O12" t="n">
         <v>119.1474696551402</v>
-      </c>
-      <c r="N12" t="n">
-        <v>119.1474696551402</v>
-      </c>
-      <c r="O12" t="n">
-        <v>158.3355078473624</v>
       </c>
       <c r="P12" t="n">
         <v>158.3355078473624</v>
@@ -5142,25 +5142,25 @@
         <v>158.3355078473624</v>
       </c>
       <c r="R12" t="n">
-        <v>158.3355078473624</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="S12" t="n">
-        <v>158.3355078473624</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="T12" t="n">
-        <v>158.3355078473624</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="U12" t="n">
-        <v>158.3355078473624</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="V12" t="n">
-        <v>158.3355078473624</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="W12" t="n">
-        <v>158.3355078473624</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="X12" t="n">
-        <v>158.3355078473624</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="Y12" t="n">
         <v>118.3517937444931</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>43.15042425981653</v>
+        <v>93.21247408113457</v>
       </c>
       <c r="C13" t="n">
-        <v>43.15042425981653</v>
+        <v>93.21247408113457</v>
       </c>
       <c r="D13" t="n">
-        <v>43.15042425981653</v>
+        <v>93.21247408113457</v>
       </c>
       <c r="E13" t="n">
-        <v>43.15042425981653</v>
+        <v>93.21247408113457</v>
       </c>
       <c r="F13" t="n">
-        <v>43.15042425981653</v>
+        <v>93.21247408113457</v>
       </c>
       <c r="G13" t="n">
-        <v>43.15042425981653</v>
+        <v>83.13413836268582</v>
       </c>
       <c r="H13" t="n">
-        <v>43.15042425981653</v>
+        <v>83.13413836268582</v>
       </c>
       <c r="I13" t="n">
         <v>43.15042425981653</v>
@@ -5233,16 +5233,16 @@
         <v>133.1961881840039</v>
       </c>
       <c r="V13" t="n">
-        <v>93.21247408113457</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="W13" t="n">
-        <v>53.22875997826529</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="X13" t="n">
-        <v>53.22875997826529</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="Y13" t="n">
-        <v>43.15042425981653</v>
+        <v>133.1961881840039</v>
       </c>
     </row>
     <row r="14">
@@ -5252,25 +5252,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>28.29275017052741</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="C14" t="n">
-        <v>28.29275017052741</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="D14" t="n">
-        <v>28.29275017052741</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="E14" t="n">
-        <v>28.29275017052741</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="F14" t="n">
-        <v>28.29275017052741</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="G14" t="n">
-        <v>28.29275017052741</v>
+        <v>83.13413836268582</v>
       </c>
       <c r="H14" t="n">
-        <v>28.29275017052741</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="I14" t="n">
         <v>3.166710156947247</v>
@@ -5279,16 +5279,16 @@
         <v>3.166710156947247</v>
       </c>
       <c r="K14" t="n">
-        <v>3.166710156947247</v>
+        <v>42.35474834916943</v>
       </c>
       <c r="L14" t="n">
-        <v>42.35474834916943</v>
+        <v>79.95943146291799</v>
       </c>
       <c r="M14" t="n">
-        <v>81.54278654139161</v>
+        <v>79.95943146291799</v>
       </c>
       <c r="N14" t="n">
-        <v>120.7308247336138</v>
+        <v>119.1474696551402</v>
       </c>
       <c r="O14" t="n">
         <v>158.3355078473624</v>
@@ -5297,31 +5297,31 @@
         <v>158.3355078473624</v>
       </c>
       <c r="Q14" t="n">
-        <v>148.2438924791353</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="R14" t="n">
-        <v>148.2438924791353</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="S14" t="n">
-        <v>148.2438924791353</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="T14" t="n">
-        <v>108.260178376266</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="U14" t="n">
-        <v>68.2764642733967</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="V14" t="n">
-        <v>28.29275017052741</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="W14" t="n">
-        <v>28.29275017052741</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="X14" t="n">
-        <v>28.29275017052741</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="Y14" t="n">
-        <v>28.29275017052741</v>
+        <v>118.3517937444931</v>
       </c>
     </row>
     <row r="15">
@@ -5331,22 +5331,22 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>3.166710156947247</v>
+        <v>78.36807964162378</v>
       </c>
       <c r="C15" t="n">
-        <v>3.166710156947247</v>
+        <v>78.36807964162378</v>
       </c>
       <c r="D15" t="n">
-        <v>3.166710156947247</v>
+        <v>78.36807964162378</v>
       </c>
       <c r="E15" t="n">
-        <v>3.166710156947247</v>
+        <v>78.36807964162378</v>
       </c>
       <c r="F15" t="n">
-        <v>3.166710156947247</v>
+        <v>78.36807964162378</v>
       </c>
       <c r="G15" t="n">
-        <v>3.166710156947247</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="H15" t="n">
         <v>3.166710156947247</v>
@@ -5358,49 +5358,49 @@
         <v>3.166710156947247</v>
       </c>
       <c r="K15" t="n">
-        <v>3.166710156947247</v>
+        <v>42.35474834916943</v>
       </c>
       <c r="L15" t="n">
-        <v>3.166710156947247</v>
+        <v>79.95943146291799</v>
       </c>
       <c r="M15" t="n">
-        <v>42.35474834916943</v>
+        <v>119.1474696551402</v>
       </c>
       <c r="N15" t="n">
-        <v>42.35474834916943</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="O15" t="n">
-        <v>81.54278654139161</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="P15" t="n">
-        <v>119.1474696551402</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="Q15" t="n">
         <v>158.3355078473624</v>
       </c>
       <c r="R15" t="n">
-        <v>158.3355078473624</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="S15" t="n">
-        <v>158.3355078473624</v>
+        <v>78.36807964162378</v>
       </c>
       <c r="T15" t="n">
-        <v>158.3355078473624</v>
+        <v>78.36807964162378</v>
       </c>
       <c r="U15" t="n">
-        <v>158.3355078473624</v>
+        <v>78.36807964162378</v>
       </c>
       <c r="V15" t="n">
-        <v>158.3355078473624</v>
+        <v>78.36807964162378</v>
       </c>
       <c r="W15" t="n">
-        <v>118.3517937444931</v>
+        <v>78.36807964162378</v>
       </c>
       <c r="X15" t="n">
         <v>78.36807964162378</v>
       </c>
       <c r="Y15" t="n">
-        <v>43.15042425981653</v>
+        <v>78.36807964162378</v>
       </c>
     </row>
     <row r="16">
@@ -5410,31 +5410,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>3.166710156947247</v>
+        <v>13.245045875396</v>
       </c>
       <c r="C16" t="n">
-        <v>3.166710156947247</v>
+        <v>13.245045875396</v>
       </c>
       <c r="D16" t="n">
-        <v>3.166710156947247</v>
+        <v>13.245045875396</v>
       </c>
       <c r="E16" t="n">
-        <v>3.166710156947247</v>
+        <v>13.245045875396</v>
       </c>
       <c r="F16" t="n">
-        <v>3.166710156947247</v>
+        <v>13.245045875396</v>
       </c>
       <c r="G16" t="n">
-        <v>3.166710156947247</v>
+        <v>13.245045875396</v>
       </c>
       <c r="H16" t="n">
-        <v>3.166710156947247</v>
+        <v>13.245045875396</v>
       </c>
       <c r="I16" t="n">
-        <v>3.166710156947247</v>
+        <v>13.245045875396</v>
       </c>
       <c r="J16" t="n">
-        <v>3.166710156947247</v>
+        <v>13.245045875396</v>
       </c>
       <c r="K16" t="n">
         <v>3.166710156947247</v>
@@ -5452,34 +5452,34 @@
         <v>133.1961881840039</v>
       </c>
       <c r="P16" t="n">
-        <v>130.4472581485427</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="Q16" t="n">
-        <v>90.46354404567346</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="R16" t="n">
-        <v>90.46354404567346</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="S16" t="n">
-        <v>90.46354404567346</v>
+        <v>93.21247408113457</v>
       </c>
       <c r="T16" t="n">
-        <v>90.46354404567346</v>
+        <v>53.22875997826529</v>
       </c>
       <c r="U16" t="n">
-        <v>90.46354404567346</v>
+        <v>13.245045875396</v>
       </c>
       <c r="V16" t="n">
-        <v>83.13413836268582</v>
+        <v>13.245045875396</v>
       </c>
       <c r="W16" t="n">
-        <v>43.15042425981653</v>
+        <v>13.245045875396</v>
       </c>
       <c r="X16" t="n">
-        <v>3.166710156947247</v>
+        <v>13.245045875396</v>
       </c>
       <c r="Y16" t="n">
-        <v>3.166710156947247</v>
+        <v>13.245045875396</v>
       </c>
     </row>
     <row r="17">
@@ -5489,22 +5489,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>3.530573790338288</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="C17" t="n">
-        <v>3.530573790338288</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="D17" t="n">
-        <v>3.530573790338288</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="E17" t="n">
-        <v>3.530573790338288</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="F17" t="n">
-        <v>3.530573790338288</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="G17" t="n">
-        <v>3.530573790338288</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="H17" t="n">
         <v>3.530573790338288</v>
@@ -5516,19 +5516,19 @@
         <v>3.530573790338288</v>
       </c>
       <c r="K17" t="n">
-        <v>3.530573790338288</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="L17" t="n">
-        <v>47.22142444577459</v>
+        <v>90.91227510121089</v>
       </c>
       <c r="M17" t="n">
-        <v>90.91227510121089</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="N17" t="n">
-        <v>134.6031257566472</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="O17" t="n">
-        <v>176.5286895169144</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="P17" t="n">
         <v>176.5286895169144</v>
@@ -5540,25 +5540,25 @@
         <v>176.5286895169144</v>
       </c>
       <c r="S17" t="n">
-        <v>176.5286895169144</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="T17" t="n">
-        <v>176.5286895169144</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="U17" t="n">
-        <v>176.5286895169144</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="V17" t="n">
         <v>131.9507376187037</v>
       </c>
       <c r="W17" t="n">
-        <v>87.37278572049297</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="X17" t="n">
-        <v>42.79483382228227</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="Y17" t="n">
-        <v>3.530573790338288</v>
+        <v>131.9507376187037</v>
       </c>
     </row>
     <row r="18">
@@ -5568,16 +5568,16 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>42.79483382228227</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="C18" t="n">
-        <v>42.79483382228227</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="D18" t="n">
-        <v>42.79483382228227</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="E18" t="n">
-        <v>42.79483382228227</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="F18" t="n">
         <v>3.530573790338288</v>
@@ -5598,10 +5598,10 @@
         <v>3.530573790338288</v>
       </c>
       <c r="L18" t="n">
-        <v>47.22142444577459</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="M18" t="n">
-        <v>89.14698820604177</v>
+        <v>45.45613755060546</v>
       </c>
       <c r="N18" t="n">
         <v>89.14698820604177</v>
@@ -5610,7 +5610,7 @@
         <v>132.8378388614781</v>
       </c>
       <c r="P18" t="n">
-        <v>176.5286895169144</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="Q18" t="n">
         <v>176.5286895169144</v>
@@ -5625,19 +5625,19 @@
         <v>42.79483382228227</v>
       </c>
       <c r="U18" t="n">
-        <v>42.79483382228227</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="V18" t="n">
-        <v>42.79483382228227</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="W18" t="n">
-        <v>42.79483382228227</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="X18" t="n">
-        <v>42.79483382228227</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="Y18" t="n">
-        <v>42.79483382228227</v>
+        <v>3.530573790338288</v>
       </c>
     </row>
     <row r="19">
@@ -5647,13 +5647,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>4.329008585976936</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="C19" t="n">
-        <v>4.329008585976936</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="D19" t="n">
-        <v>4.329008585976936</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="E19" t="n">
         <v>3.530573790338288</v>
@@ -5695,28 +5695,28 @@
         <v>138.062864280609</v>
       </c>
       <c r="R19" t="n">
-        <v>138.062864280609</v>
+        <v>93.48491238239833</v>
       </c>
       <c r="S19" t="n">
-        <v>138.062864280609</v>
+        <v>93.48491238239833</v>
       </c>
       <c r="T19" t="n">
-        <v>138.062864280609</v>
+        <v>93.48491238239833</v>
       </c>
       <c r="U19" t="n">
-        <v>138.062864280609</v>
+        <v>93.48491238239833</v>
       </c>
       <c r="V19" t="n">
-        <v>93.48491238239833</v>
+        <v>48.90696048418764</v>
       </c>
       <c r="W19" t="n">
-        <v>93.48491238239833</v>
+        <v>48.90696048418764</v>
       </c>
       <c r="X19" t="n">
-        <v>93.48491238239833</v>
+        <v>48.90696048418764</v>
       </c>
       <c r="Y19" t="n">
-        <v>48.90696048418764</v>
+        <v>4.329008585976936</v>
       </c>
     </row>
     <row r="20">
@@ -5726,28 +5726,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>19.28114311021272</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="C20" t="n">
-        <v>19.28114311021272</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="D20" t="n">
-        <v>19.28114311021272</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="E20" t="n">
-        <v>19.28114311021272</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="F20" t="n">
-        <v>19.28114311021272</v>
+        <v>72.23626279480629</v>
       </c>
       <c r="G20" t="n">
-        <v>19.28114311021272</v>
+        <v>72.23626279480629</v>
       </c>
       <c r="H20" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I20" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J20" t="n">
         <v>19.28114311021272</v>
@@ -5771,31 +5771,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q20" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R20" t="n">
-        <v>960.7588564629629</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S20" t="n">
-        <v>749.627473042513</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T20" t="n">
-        <v>749.627473042513</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="U20" t="n">
-        <v>749.627473042513</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="V20" t="n">
-        <v>749.627473042513</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="W20" t="n">
-        <v>506.1786963984129</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="X20" t="n">
-        <v>262.7299197543128</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="Y20" t="n">
-        <v>19.28114311021272</v>
+        <v>802.5825927271064</v>
       </c>
     </row>
     <row r="21">
@@ -5835,19 +5835,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2442489785619</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M21" t="n">
-        <v>487.8483949674443</v>
+        <v>257.8852890990952</v>
       </c>
       <c r="N21" t="n">
-        <v>542.809531908403</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O21" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P21" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q21" t="n">
         <v>964.0571555106362</v>
@@ -5859,22 +5859,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T21" t="n">
-        <v>761.8705608694022</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U21" t="n">
-        <v>533.6469426057913</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V21" t="n">
-        <v>298.4948343740486</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W21" t="n">
-        <v>55.04605772994853</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X21" t="n">
-        <v>19.28114311021272</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="Y21" t="n">
-        <v>19.28114311021272</v>
+        <v>49.38115216564972</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="C22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="D22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L22" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M22" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N22" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O22" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P22" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q22" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R22" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S22" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T22" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="U22" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="V22" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="W22" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="X22" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="Y22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
     </row>
     <row r="23">
@@ -6008,28 +6008,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q23" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R23" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S23" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T23" t="n">
+        <v>964.0571555106362</v>
+      </c>
+      <c r="U23" t="n">
+        <v>964.0571555106362</v>
+      </c>
+      <c r="V23" t="n">
         <v>749.627473042513</v>
       </c>
-      <c r="U23" t="n">
+      <c r="W23" t="n">
         <v>506.1786963984129</v>
       </c>
-      <c r="V23" t="n">
-        <v>506.1786963984129</v>
-      </c>
-      <c r="W23" t="n">
+      <c r="X23" t="n">
         <v>262.7299197543128</v>
-      </c>
-      <c r="X23" t="n">
-        <v>19.28114311021272</v>
       </c>
       <c r="Y23" t="n">
         <v>19.28114311021272</v>
@@ -6069,13 +6069,13 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K24" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L24" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M24" t="n">
-        <v>473.4149733950735</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="N24" t="n">
         <v>473.4149733950735</v>
@@ -6093,19 +6093,19 @@
         <v>862.8876260635219</v>
       </c>
       <c r="S24" t="n">
-        <v>689.4702815141908</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T24" t="n">
-        <v>689.4702815141908</v>
+        <v>660.701031422288</v>
       </c>
       <c r="U24" t="n">
-        <v>461.2466632505798</v>
+        <v>432.4774131586771</v>
       </c>
       <c r="V24" t="n">
-        <v>461.2466632505798</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W24" t="n">
-        <v>217.7978866064798</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X24" t="n">
         <v>19.28114311021272</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="C25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="D25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L25" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M25" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N25" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O25" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P25" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q25" t="n">
-        <v>153.8134336004835</v>
+        <v>877.0247885897328</v>
       </c>
       <c r="R25" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="S25" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="T25" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="U25" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="V25" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="W25" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="X25" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="Y25" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
     </row>
     <row r="26">
@@ -6200,22 +6200,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C26" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D26" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E26" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F26" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G26" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H26" t="n">
         <v>19.28114311021272</v>
@@ -6263,13 +6263,13 @@
         <v>964.0571555106362</v>
       </c>
       <c r="W26" t="n">
-        <v>749.627473042513</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X26" t="n">
-        <v>749.627473042513</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="Y26" t="n">
-        <v>506.1786963984129</v>
+        <v>477.1596022224361</v>
       </c>
     </row>
     <row r="27">
@@ -6279,25 +6279,25 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>19.28114311021272</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="C27" t="n">
-        <v>19.28114311021272</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="D27" t="n">
-        <v>19.28114311021272</v>
+        <v>667.4527462414319</v>
       </c>
       <c r="E27" t="n">
-        <v>19.28114311021272</v>
+        <v>508.2152912359765</v>
       </c>
       <c r="F27" t="n">
-        <v>19.28114311021272</v>
+        <v>361.6807332628614</v>
       </c>
       <c r="G27" t="n">
-        <v>19.28114311021272</v>
+        <v>222.9499078454769</v>
       </c>
       <c r="H27" t="n">
-        <v>19.28114311021272</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="I27" t="n">
         <v>19.28114311021272</v>
@@ -6312,7 +6312,7 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M27" t="n">
-        <v>473.4149733950735</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N27" t="n">
         <v>473.4149733950735</v>
@@ -6330,25 +6330,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S27" t="n">
-        <v>928.2922408909005</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T27" t="n">
-        <v>726.1056462496665</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U27" t="n">
-        <v>497.8820279860555</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="V27" t="n">
-        <v>262.7299197543128</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="W27" t="n">
-        <v>19.28114311021272</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="X27" t="n">
-        <v>19.28114311021272</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="Y27" t="n">
-        <v>19.28114311021272</v>
+        <v>761.8705608694022</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="E28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="F28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="G28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="H28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="I28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L28" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M28" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N28" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="29">
@@ -6437,7 +6437,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>742.8341567219593</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C29" t="n">
         <v>506.1786963984129</v>
@@ -6449,7 +6449,7 @@
         <v>262.7299197543128</v>
       </c>
       <c r="F29" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G29" t="n">
         <v>19.28114311021272</v>
@@ -6488,25 +6488,25 @@
         <v>953.9655401424092</v>
       </c>
       <c r="S29" t="n">
-        <v>742.8341567219593</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T29" t="n">
-        <v>742.8341567219593</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U29" t="n">
-        <v>742.8341567219593</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V29" t="n">
-        <v>742.8341567219593</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W29" t="n">
-        <v>742.8341567219593</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="X29" t="n">
-        <v>742.8341567219593</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="Y29" t="n">
-        <v>742.8341567219593</v>
+        <v>710.516763498309</v>
       </c>
     </row>
     <row r="30">
@@ -6543,13 +6543,13 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K30" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M30" t="n">
-        <v>249.2442489785619</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N30" t="n">
         <v>473.4149733950735</v>
@@ -6567,19 +6567,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S30" t="n">
-        <v>964.0571555106362</v>
+        <v>933.8659450146204</v>
       </c>
       <c r="T30" t="n">
-        <v>964.0571555106362</v>
+        <v>933.8659450146204</v>
       </c>
       <c r="U30" t="n">
-        <v>735.8335372470253</v>
+        <v>705.6423267510095</v>
       </c>
       <c r="V30" t="n">
-        <v>500.6814290152826</v>
+        <v>470.4902185192667</v>
       </c>
       <c r="W30" t="n">
-        <v>434.8929420806995</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="X30" t="n">
         <v>227.0414418751666</v>
@@ -6652,7 +6652,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="U31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V31" t="n">
         <v>19.28114311021272</v>
@@ -6674,28 +6674,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>262.7299197543128</v>
+        <v>509.4769954460863</v>
       </c>
       <c r="C32" t="n">
-        <v>19.28114311021272</v>
+        <v>266.0282188019862</v>
       </c>
       <c r="D32" t="n">
-        <v>19.28114311021272</v>
+        <v>266.0282188019862</v>
       </c>
       <c r="E32" t="n">
-        <v>19.28114311021272</v>
+        <v>22.57944215788615</v>
       </c>
       <c r="F32" t="n">
-        <v>19.28114311021272</v>
+        <v>22.57944215788615</v>
       </c>
       <c r="G32" t="n">
-        <v>19.28114311021272</v>
+        <v>22.57944215788615</v>
       </c>
       <c r="H32" t="n">
-        <v>19.28114311021272</v>
+        <v>22.57944215788615</v>
       </c>
       <c r="I32" t="n">
-        <v>19.28114311021272</v>
+        <v>22.57944215788615</v>
       </c>
       <c r="J32" t="n">
         <v>19.28114311021272</v>
@@ -6725,25 +6725,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S32" t="n">
-        <v>964.0571555106362</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="T32" t="n">
-        <v>749.627473042513</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="U32" t="n">
-        <v>749.627473042513</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="V32" t="n">
-        <v>506.1786963984129</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="W32" t="n">
-        <v>506.1786963984129</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="X32" t="n">
-        <v>262.7299197543128</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="Y32" t="n">
-        <v>262.7299197543128</v>
+        <v>752.9257720901863</v>
       </c>
     </row>
     <row r="33">
@@ -6753,28 +6753,28 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>193.7341723913397</v>
+        <v>111.3080510879349</v>
       </c>
       <c r="C33" t="n">
-        <v>19.28114311021272</v>
+        <v>111.3080510879349</v>
       </c>
       <c r="D33" t="n">
-        <v>19.28114311021272</v>
+        <v>111.3080510879349</v>
       </c>
       <c r="E33" t="n">
-        <v>19.28114311021272</v>
+        <v>111.3080510879349</v>
       </c>
       <c r="F33" t="n">
-        <v>19.28114311021272</v>
+        <v>111.3080510879349</v>
       </c>
       <c r="G33" t="n">
-        <v>19.28114311021272</v>
+        <v>111.3080510879349</v>
       </c>
       <c r="H33" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I33" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J33" t="n">
         <v>19.28114311021272</v>
@@ -6786,10 +6786,10 @@
         <v>249.2442489785619</v>
       </c>
       <c r="M33" t="n">
-        <v>487.8483949674443</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N33" t="n">
-        <v>726.4525409563269</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O33" t="n">
         <v>964.0571555106362</v>
@@ -6804,25 +6804,25 @@
         <v>862.8876260635219</v>
       </c>
       <c r="S33" t="n">
-        <v>844.4980795935692</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T33" t="n">
-        <v>844.4980795935692</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U33" t="n">
-        <v>844.4980795935692</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="V33" t="n">
-        <v>609.3459713618265</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="W33" t="n">
-        <v>609.3459713618265</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="X33" t="n">
-        <v>401.4944711562937</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="Y33" t="n">
-        <v>193.7341723913397</v>
+        <v>279.5233881080029</v>
       </c>
     </row>
     <row r="34">
@@ -6838,10 +6838,10 @@
         <v>964.0571555106362</v>
       </c>
       <c r="D34" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E34" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F34" t="n">
         <v>829.5248650203655</v>
@@ -6911,25 +6911,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>266.0282188019862</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="C35" t="n">
-        <v>22.57944215788615</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="D35" t="n">
-        <v>22.57944215788615</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="E35" t="n">
-        <v>22.57944215788615</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F35" t="n">
-        <v>22.57944215788615</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G35" t="n">
-        <v>22.57944215788615</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H35" t="n">
-        <v>22.57944215788615</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I35" t="n">
         <v>19.28114311021272</v>
@@ -6962,25 +6962,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S35" t="n">
-        <v>752.9257720901863</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T35" t="n">
-        <v>752.9257720901863</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U35" t="n">
-        <v>752.9257720901863</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V35" t="n">
-        <v>509.4769954460863</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W35" t="n">
-        <v>509.4769954460863</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X35" t="n">
-        <v>509.4769954460863</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y35" t="n">
-        <v>266.0282188019862</v>
+        <v>720.6083788665362</v>
       </c>
     </row>
     <row r="36">
@@ -6990,28 +6990,28 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>83.81530782185143</v>
+        <v>179.2727307684539</v>
       </c>
       <c r="C36" t="n">
-        <v>83.81530782185143</v>
+        <v>179.2727307684539</v>
       </c>
       <c r="D36" t="n">
-        <v>83.81530782185143</v>
+        <v>179.2727307684539</v>
       </c>
       <c r="E36" t="n">
-        <v>83.81530782185143</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F36" t="n">
-        <v>83.81530782185143</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G36" t="n">
-        <v>83.81530782185143</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H36" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I36" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J36" t="n">
         <v>19.28114311021272</v>
@@ -7020,46 +7020,46 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2442489785619</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M36" t="n">
-        <v>487.8483949674443</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N36" t="n">
-        <v>726.4525409563269</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O36" t="n">
-        <v>964.0571555106362</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P36" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q36" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R36" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S36" t="n">
-        <v>790.6398109613051</v>
+        <v>817.5344438788318</v>
       </c>
       <c r="T36" t="n">
-        <v>790.6398109613051</v>
+        <v>615.3478492375978</v>
       </c>
       <c r="U36" t="n">
-        <v>562.4161926976942</v>
+        <v>387.1242309739868</v>
       </c>
       <c r="V36" t="n">
-        <v>327.2640844659515</v>
+        <v>387.1242309739868</v>
       </c>
       <c r="W36" t="n">
-        <v>83.81530782185143</v>
+        <v>387.1242309739868</v>
       </c>
       <c r="X36" t="n">
-        <v>83.81530782185143</v>
+        <v>179.2727307684539</v>
       </c>
       <c r="Y36" t="n">
-        <v>83.81530782185143</v>
+        <v>179.2727307684539</v>
       </c>
     </row>
     <row r="37">
@@ -7117,16 +7117,16 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V37" t="n">
         <v>19.28114311021272</v>
@@ -7148,28 +7148,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>122.6530896684844</v>
+        <v>749.627473042513</v>
       </c>
       <c r="C38" t="n">
-        <v>122.6530896684844</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D38" t="n">
-        <v>31.35113235729608</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E38" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F38" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G38" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H38" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I38" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J38" t="n">
         <v>19.28114311021272</v>
@@ -7193,31 +7193,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q38" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R38" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S38" t="n">
-        <v>591.4512093066566</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T38" t="n">
-        <v>366.1018663125844</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U38" t="n">
-        <v>122.6530896684844</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V38" t="n">
-        <v>122.6530896684844</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W38" t="n">
-        <v>122.6530896684844</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X38" t="n">
-        <v>122.6530896684844</v>
+        <v>749.627473042513</v>
       </c>
       <c r="Y38" t="n">
-        <v>122.6530896684844</v>
+        <v>749.627473042513</v>
       </c>
     </row>
     <row r="39">
@@ -7227,10 +7227,10 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>193.7341723913397</v>
+        <v>342.668582052591</v>
       </c>
       <c r="C39" t="n">
-        <v>19.28114311021272</v>
+        <v>168.215552771464</v>
       </c>
       <c r="D39" t="n">
         <v>19.28114311021272</v>
@@ -7257,10 +7257,10 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2442489785619</v>
+        <v>248.2447175439888</v>
       </c>
       <c r="M39" t="n">
-        <v>487.8483949674443</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N39" t="n">
         <v>725.4530095217538</v>
@@ -7275,28 +7275,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R39" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S39" t="n">
-        <v>864.8701976516472</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T39" t="n">
-        <v>864.8701976516472</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U39" t="n">
-        <v>636.6465793880363</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V39" t="n">
-        <v>401.4944711562937</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="W39" t="n">
-        <v>401.4944711562937</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="X39" t="n">
-        <v>401.4944711562937</v>
+        <v>655.0361258579891</v>
       </c>
       <c r="Y39" t="n">
-        <v>193.7341723913397</v>
+        <v>447.2758270930352</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L40" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M40" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N40" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S40" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T40" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U40" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="41">
@@ -7385,25 +7385,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>231.5191881337974</v>
+        <v>458.0632807753398</v>
       </c>
       <c r="C41" t="n">
-        <v>231.5191881337974</v>
+        <v>257.7718183255803</v>
       </c>
       <c r="D41" t="n">
-        <v>231.5191881337974</v>
+        <v>257.7718183255803</v>
       </c>
       <c r="E41" t="n">
-        <v>231.5191881337974</v>
+        <v>18.91727947682168</v>
       </c>
       <c r="F41" t="n">
-        <v>231.5191881337974</v>
+        <v>18.91727947682168</v>
       </c>
       <c r="G41" t="n">
-        <v>231.5191881337974</v>
+        <v>18.91727947682168</v>
       </c>
       <c r="H41" t="n">
-        <v>231.5191881337974</v>
+        <v>18.91727947682168</v>
       </c>
       <c r="I41" t="n">
         <v>18.91727947682168</v>
@@ -7418,7 +7418,7 @@
         <v>302.0081369724026</v>
       </c>
       <c r="M41" t="n">
-        <v>501.1544461991459</v>
+        <v>518.9837642353068</v>
       </c>
       <c r="N41" t="n">
         <v>707.0089684063852</v>
@@ -7430,31 +7430,31 @@
         <v>945.8639738410842</v>
       </c>
       <c r="Q41" t="n">
-        <v>945.8639738410842</v>
+        <v>935.7723584728571</v>
       </c>
       <c r="R41" t="n">
-        <v>945.8639738410842</v>
+        <v>935.7723584728571</v>
       </c>
       <c r="S41" t="n">
-        <v>734.7325904206343</v>
+        <v>935.7723584728571</v>
       </c>
       <c r="T41" t="n">
-        <v>509.3832474265622</v>
+        <v>935.7723584728571</v>
       </c>
       <c r="U41" t="n">
-        <v>270.5287085778035</v>
+        <v>935.7723584728571</v>
       </c>
       <c r="V41" t="n">
-        <v>231.5191881337974</v>
+        <v>935.7723584728571</v>
       </c>
       <c r="W41" t="n">
-        <v>231.5191881337974</v>
+        <v>935.7723584728571</v>
       </c>
       <c r="X41" t="n">
-        <v>231.5191881337974</v>
+        <v>696.9178196240985</v>
       </c>
       <c r="Y41" t="n">
-        <v>231.5191881337974</v>
+        <v>696.9178196240985</v>
       </c>
     </row>
     <row r="42">
@@ -7464,46 +7464,46 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>243.6337084969718</v>
+        <v>207.9013733492851</v>
       </c>
       <c r="C42" t="n">
-        <v>243.6337084969718</v>
+        <v>207.9013733492851</v>
       </c>
       <c r="D42" t="n">
-        <v>243.6337084969718</v>
+        <v>58.96696368803384</v>
       </c>
       <c r="E42" t="n">
-        <v>243.6337084969718</v>
+        <v>58.96696368803384</v>
       </c>
       <c r="F42" t="n">
-        <v>158.4022375469919</v>
+        <v>18.91727947682168</v>
       </c>
       <c r="G42" t="n">
-        <v>19.6714121296074</v>
+        <v>18.91727947682168</v>
       </c>
       <c r="H42" t="n">
-        <v>19.6714121296074</v>
+        <v>18.91727947682168</v>
       </c>
       <c r="I42" t="n">
-        <v>19.6714121296074</v>
+        <v>18.91727947682168</v>
       </c>
       <c r="J42" t="n">
         <v>18.91727947682168</v>
       </c>
       <c r="K42" t="n">
-        <v>144.2748395346591</v>
+        <v>18.91727947682168</v>
       </c>
       <c r="L42" t="n">
-        <v>374.2379454030082</v>
+        <v>18.91727947682168</v>
       </c>
       <c r="M42" t="n">
-        <v>374.2379454030082</v>
+        <v>253.01861300249</v>
       </c>
       <c r="N42" t="n">
-        <v>608.3392789286765</v>
+        <v>487.1199465281584</v>
       </c>
       <c r="O42" t="n">
-        <v>842.4406124543449</v>
+        <v>721.2212800538267</v>
       </c>
       <c r="P42" t="n">
         <v>876.4694153277549</v>
@@ -7512,28 +7512,28 @@
         <v>945.8639738410842</v>
       </c>
       <c r="R42" t="n">
-        <v>945.8639738410842</v>
+        <v>844.6944443939699</v>
       </c>
       <c r="S42" t="n">
-        <v>945.8639738410842</v>
+        <v>671.2770998446388</v>
       </c>
       <c r="T42" t="n">
-        <v>945.8639738410842</v>
+        <v>671.2770998446388</v>
       </c>
       <c r="U42" t="n">
-        <v>717.6403555774732</v>
+        <v>443.0534815810278</v>
       </c>
       <c r="V42" t="n">
-        <v>482.4882473457305</v>
+        <v>207.9013733492851</v>
       </c>
       <c r="W42" t="n">
-        <v>243.6337084969718</v>
+        <v>207.9013733492851</v>
       </c>
       <c r="X42" t="n">
-        <v>243.6337084969718</v>
+        <v>207.9013733492851</v>
       </c>
       <c r="Y42" t="n">
-        <v>243.6337084969718</v>
+        <v>207.9013733492851</v>
       </c>
     </row>
     <row r="43">
@@ -7543,19 +7543,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>945.8639738410842</v>
+        <v>811.3316833508135</v>
       </c>
       <c r="C43" t="n">
-        <v>945.8639738410842</v>
+        <v>811.3316833508135</v>
       </c>
       <c r="D43" t="n">
-        <v>945.8639738410842</v>
+        <v>811.3316833508135</v>
       </c>
       <c r="E43" t="n">
-        <v>945.8639738410842</v>
+        <v>811.3316833508135</v>
       </c>
       <c r="F43" t="n">
-        <v>945.8639738410842</v>
+        <v>811.3316833508135</v>
       </c>
       <c r="G43" t="n">
         <v>811.3316833508135</v>
@@ -7600,19 +7600,19 @@
         <v>945.8639738410842</v>
       </c>
       <c r="U43" t="n">
-        <v>945.8639738410842</v>
+        <v>811.3316833508135</v>
       </c>
       <c r="V43" t="n">
-        <v>945.8639738410842</v>
+        <v>811.3316833508135</v>
       </c>
       <c r="W43" t="n">
-        <v>945.8639738410842</v>
+        <v>811.3316833508135</v>
       </c>
       <c r="X43" t="n">
-        <v>945.8639738410842</v>
+        <v>811.3316833508135</v>
       </c>
       <c r="Y43" t="n">
-        <v>945.8639738410842</v>
+        <v>811.3316833508135</v>
       </c>
     </row>
     <row r="44">
@@ -7652,13 +7652,13 @@
         <v>3.166710156947247</v>
       </c>
       <c r="L44" t="n">
-        <v>42.35474834916943</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="M44" t="n">
+        <v>40.77139327069581</v>
+      </c>
+      <c r="N44" t="n">
         <v>79.95943146291799</v>
-      </c>
-      <c r="N44" t="n">
-        <v>119.1474696551402</v>
       </c>
       <c r="O44" t="n">
         <v>119.1474696551402</v>
@@ -7667,16 +7667,16 @@
         <v>158.3355078473624</v>
       </c>
       <c r="Q44" t="n">
-        <v>158.3355078473624</v>
+        <v>148.2438924791353</v>
       </c>
       <c r="R44" t="n">
+        <v>148.2438924791353</v>
+      </c>
+      <c r="S44" t="n">
         <v>123.1178524655551</v>
       </c>
-      <c r="S44" t="n">
+      <c r="T44" t="n">
         <v>83.13413836268582</v>
-      </c>
-      <c r="T44" t="n">
-        <v>43.15042425981653</v>
       </c>
       <c r="U44" t="n">
         <v>43.15042425981653</v>
@@ -7701,10 +7701,10 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>3.166710156947247</v>
+        <v>83.13413836268582</v>
       </c>
       <c r="C45" t="n">
-        <v>3.166710156947247</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="D45" t="n">
         <v>3.166710156947247</v>
@@ -7731,19 +7731,19 @@
         <v>3.166710156947247</v>
       </c>
       <c r="L45" t="n">
-        <v>42.35474834916943</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="M45" t="n">
-        <v>81.54278654139161</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="N45" t="n">
+        <v>40.77139327069581</v>
+      </c>
+      <c r="O45" t="n">
+        <v>79.95943146291799</v>
+      </c>
+      <c r="P45" t="n">
         <v>119.1474696551402</v>
-      </c>
-      <c r="O45" t="n">
-        <v>158.3355078473624</v>
-      </c>
-      <c r="P45" t="n">
-        <v>158.3355078473624</v>
       </c>
       <c r="Q45" t="n">
         <v>158.3355078473624</v>
@@ -7755,22 +7755,22 @@
         <v>158.3355078473624</v>
       </c>
       <c r="T45" t="n">
+        <v>158.3355078473624</v>
+      </c>
+      <c r="U45" t="n">
+        <v>158.3355078473624</v>
+      </c>
+      <c r="V45" t="n">
+        <v>158.3355078473624</v>
+      </c>
+      <c r="W45" t="n">
+        <v>158.3355078473624</v>
+      </c>
+      <c r="X45" t="n">
+        <v>158.3355078473624</v>
+      </c>
+      <c r="Y45" t="n">
         <v>123.1178524655551</v>
-      </c>
-      <c r="U45" t="n">
-        <v>83.13413836268582</v>
-      </c>
-      <c r="V45" t="n">
-        <v>43.15042425981653</v>
-      </c>
-      <c r="W45" t="n">
-        <v>43.15042425981653</v>
-      </c>
-      <c r="X45" t="n">
-        <v>3.166710156947247</v>
-      </c>
-      <c r="Y45" t="n">
-        <v>3.166710156947247</v>
       </c>
     </row>
     <row r="46">
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>93.21247408113457</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="C46" t="n">
-        <v>53.22875997826529</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="D46" t="n">
-        <v>53.22875997826529</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="E46" t="n">
-        <v>13.245045875396</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="F46" t="n">
-        <v>13.245045875396</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="G46" t="n">
-        <v>13.245045875396</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="H46" t="n">
-        <v>13.245045875396</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="I46" t="n">
         <v>3.166710156947247</v>
@@ -7831,25 +7831,25 @@
         <v>133.1961881840039</v>
       </c>
       <c r="S46" t="n">
-        <v>133.1961881840039</v>
+        <v>123.1178524655551</v>
       </c>
       <c r="T46" t="n">
-        <v>133.1961881840039</v>
+        <v>123.1178524655551</v>
       </c>
       <c r="U46" t="n">
-        <v>133.1961881840039</v>
+        <v>123.1178524655551</v>
       </c>
       <c r="V46" t="n">
-        <v>93.21247408113457</v>
+        <v>83.13413836268582</v>
       </c>
       <c r="W46" t="n">
-        <v>93.21247408113457</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="X46" t="n">
-        <v>93.21247408113457</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="Y46" t="n">
-        <v>93.21247408113457</v>
+        <v>43.15042425981653</v>
       </c>
     </row>
   </sheetData>
@@ -7979,22 +7979,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>259.6737280068211</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L2" t="n">
-        <v>275.3502919318278</v>
+        <v>235.7664149699872</v>
       </c>
       <c r="M2" t="n">
-        <v>268.3307616249986</v>
+        <v>269.9301101891133</v>
       </c>
       <c r="N2" t="n">
-        <v>229.4130635965909</v>
+        <v>268.9969405584315</v>
       </c>
       <c r="O2" t="n">
-        <v>230.0982114216867</v>
+        <v>269.6820883835273</v>
       </c>
       <c r="P2" t="n">
-        <v>270.8168727171101</v>
+        <v>269.2175241529953</v>
       </c>
       <c r="Q2" t="n">
         <v>212.3149906599047</v>
@@ -8058,25 +8058,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>175.8259673720848</v>
+        <v>177.4253159361996</v>
       </c>
       <c r="L3" t="n">
-        <v>138.5543797798742</v>
+        <v>178.1382567417148</v>
       </c>
       <c r="M3" t="n">
-        <v>142.1340339220183</v>
+        <v>181.7179108838589</v>
       </c>
       <c r="N3" t="n">
-        <v>131.3417120833333</v>
+        <v>169.3262404810591</v>
       </c>
       <c r="O3" t="n">
-        <v>182.180121406285</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P3" t="n">
-        <v>173.5582843761708</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q3" t="n">
-        <v>179.5656510478621</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8216,7 +8216,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>258.0743794427063</v>
+        <v>259.6737280068211</v>
       </c>
       <c r="L5" t="n">
         <v>275.3502919318278</v>
@@ -8231,7 +8231,7 @@
         <v>230.0982114216867</v>
       </c>
       <c r="P5" t="n">
-        <v>270.8168727171101</v>
+        <v>269.2175241529953</v>
       </c>
       <c r="Q5" t="n">
         <v>212.3149906599047</v>
@@ -8298,19 +8298,19 @@
         <v>137.841438974359</v>
       </c>
       <c r="L6" t="n">
-        <v>178.1382567417148</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M6" t="n">
-        <v>181.7179108838589</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N6" t="n">
         <v>169.3262404810591</v>
       </c>
       <c r="O6" t="n">
-        <v>142.5962444444444</v>
+        <v>182.180121406285</v>
       </c>
       <c r="P6" t="n">
-        <v>133.9744074143302</v>
+        <v>173.5582843761708</v>
       </c>
       <c r="Q6" t="n">
         <v>179.5656510478621</v>
@@ -8456,16 +8456,16 @@
         <v>220.0898510449805</v>
       </c>
       <c r="L8" t="n">
-        <v>273.750943367713</v>
+        <v>235.7664149699872</v>
       </c>
       <c r="M8" t="n">
-        <v>269.9301101891133</v>
+        <v>268.3307616249986</v>
       </c>
       <c r="N8" t="n">
         <v>268.9969405584315</v>
       </c>
       <c r="O8" t="n">
-        <v>230.0982114216867</v>
+        <v>269.6820883835273</v>
       </c>
       <c r="P8" t="n">
         <v>270.8168727171101</v>
@@ -8535,16 +8535,16 @@
         <v>177.4253159361996</v>
       </c>
       <c r="L9" t="n">
-        <v>178.1382567417148</v>
+        <v>176.5389081776</v>
       </c>
       <c r="M9" t="n">
-        <v>180.1185623197441</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N9" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O9" t="n">
-        <v>142.5962444444444</v>
+        <v>182.180121406285</v>
       </c>
       <c r="P9" t="n">
         <v>133.9744074143302</v>
@@ -8690,13 +8690,13 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>220.0898510449805</v>
+        <v>259.6737280068211</v>
       </c>
       <c r="L11" t="n">
         <v>275.3502919318278</v>
       </c>
       <c r="M11" t="n">
-        <v>269.9301101891133</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N11" t="n">
         <v>267.3975919943167</v>
@@ -8772,10 +8772,10 @@
         <v>177.4253159361996</v>
       </c>
       <c r="L12" t="n">
-        <v>178.1382567417148</v>
+        <v>176.5389081776</v>
       </c>
       <c r="M12" t="n">
-        <v>180.1185623197441</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
         <v>131.3417120833333</v>
@@ -8784,7 +8784,7 @@
         <v>182.180121406285</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>173.5582843761708</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
@@ -8927,19 +8927,19 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>220.0898510449805</v>
+        <v>259.6737280068211</v>
       </c>
       <c r="L14" t="n">
-        <v>275.3502919318278</v>
+        <v>273.750943367713</v>
       </c>
       <c r="M14" t="n">
-        <v>269.9301101891133</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N14" t="n">
         <v>268.9969405584315</v>
       </c>
       <c r="O14" t="n">
-        <v>268.0827398194126</v>
+        <v>269.6820883835273</v>
       </c>
       <c r="P14" t="n">
         <v>231.2329957552695</v>
@@ -9006,25 +9006,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>177.4253159361996</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>176.5389081776</v>
       </c>
       <c r="M15" t="n">
         <v>181.7179108838589</v>
       </c>
       <c r="N15" t="n">
-        <v>131.3417120833333</v>
+        <v>170.9255890451739</v>
       </c>
       <c r="O15" t="n">
-        <v>182.180121406285</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
-        <v>171.9589358120561</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>179.5656510478621</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9164,22 +9164,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>220.0898510449805</v>
+        <v>264.2220234242092</v>
       </c>
       <c r="L17" t="n">
         <v>279.8985873492159</v>
       </c>
       <c r="M17" t="n">
-        <v>274.4784056065013</v>
+        <v>272.6952875305729</v>
       </c>
       <c r="N17" t="n">
-        <v>273.5452359758195</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O17" t="n">
-        <v>272.4472657249869</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P17" t="n">
-        <v>231.2329957552695</v>
+        <v>275.3651681344982</v>
       </c>
       <c r="Q17" t="n">
         <v>212.3149906599047</v>
@@ -9246,22 +9246,22 @@
         <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>182.6865521591028</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
         <v>184.4830882253185</v>
       </c>
       <c r="N18" t="n">
-        <v>131.3417120833333</v>
+        <v>175.4738844625619</v>
       </c>
       <c r="O18" t="n">
         <v>186.728416823673</v>
       </c>
       <c r="P18" t="n">
-        <v>178.1065797935588</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>184.1139464652501</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9483,13 +9483,13 @@
         <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N21" t="n">
-        <v>186.8580120236956</v>
+        <v>349.0484638974528</v>
       </c>
       <c r="O21" t="n">
         <v>383.6105333221035</v>
@@ -9498,7 +9498,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9717,16 +9717,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>241.9453110519923</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N24" t="n">
-        <v>131.3417120833333</v>
+        <v>357.7767872515269</v>
       </c>
       <c r="O24" t="n">
         <v>383.6105333221035</v>
@@ -9960,10 +9960,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>241.9453110519923</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N27" t="n">
-        <v>131.3417120833333</v>
+        <v>231.1529892133073</v>
       </c>
       <c r="O27" t="n">
         <v>383.6105333221035</v>
@@ -10112,7 +10112,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L29" t="n">
         <v>417.6612145504504</v>
@@ -10191,16 +10191,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>142.1340339220183</v>
+        <v>241.9453110519923</v>
       </c>
       <c r="N30" t="n">
-        <v>357.7767872515269</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
         <v>383.6105333221035</v>
@@ -10434,13 +10434,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>383.1483227996774</v>
+        <v>382.1386950879875</v>
       </c>
       <c r="N33" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O33" t="n">
-        <v>382.6009056104135</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -10586,7 +10586,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L35" t="n">
         <v>417.6612145504504</v>
@@ -10668,22 +10668,22 @@
         <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M36" t="n">
-        <v>383.1483227996774</v>
+        <v>359.8407857361378</v>
       </c>
       <c r="N36" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O36" t="n">
-        <v>382.6009056104135</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10823,7 +10823,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L38" t="n">
         <v>417.6612145504504</v>
@@ -10905,13 +10905,13 @@
         <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>370.8403453034592</v>
+        <v>369.8307175917693</v>
       </c>
       <c r="M39" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N39" t="n">
-        <v>371.3463732493024</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O39" t="n">
         <v>383.6105333221035</v>
@@ -11066,10 +11066,10 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>431.5041213350942</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N41" t="n">
-        <v>437.3469244119842</v>
+        <v>419.3375122542458</v>
       </c>
       <c r="O41" t="n">
         <v>380.8001812627454</v>
@@ -11139,13 +11139,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
-        <v>142.1340339220183</v>
+        <v>378.6000273822893</v>
       </c>
       <c r="N42" t="n">
         <v>367.8077055436044</v>
@@ -11154,7 +11154,7 @@
         <v>379.0622379047155</v>
       </c>
       <c r="P42" t="n">
-        <v>168.3469355692898</v>
+        <v>290.7907056708233</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
@@ -11300,7 +11300,7 @@
         <v>220.0898510449805</v>
       </c>
       <c r="L44" t="n">
-        <v>275.3502919318278</v>
+        <v>235.7664149699872</v>
       </c>
       <c r="M44" t="n">
         <v>268.3307616249986</v>
@@ -11309,7 +11309,7 @@
         <v>268.9969405584315</v>
       </c>
       <c r="O44" t="n">
-        <v>230.0982114216867</v>
+        <v>269.6820883835273</v>
       </c>
       <c r="P44" t="n">
         <v>270.8168727171101</v>
@@ -11379,10 +11379,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>178.1382567417148</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
-        <v>181.7179108838589</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
         <v>169.3262404810591</v>
@@ -11391,10 +11391,10 @@
         <v>182.180121406285</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>173.5582843761708</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>179.5656510478621</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -22544,10 +22544,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>343.14996470164</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>325.689014809167</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -22589,31 +22589,31 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>149.8691179411497</v>
+        <v>110.2852409793091</v>
       </c>
       <c r="S2" t="n">
-        <v>209.0200695862453</v>
+        <v>169.4361926244048</v>
       </c>
       <c r="T2" t="n">
-        <v>223.0958495641314</v>
+        <v>183.5119726022908</v>
       </c>
       <c r="U2" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V2" t="n">
-        <v>292.8867796421457</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>344.8563210650246</v>
       </c>
       <c r="Y2" t="n">
-        <v>346.654061694213</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -22635,16 +22635,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>110.9503248916526</v>
       </c>
       <c r="G3" t="n">
-        <v>137.3435171632106</v>
+        <v>97.75964020137005</v>
       </c>
       <c r="H3" t="n">
-        <v>112.2354442364965</v>
+        <v>72.65156727465587</v>
       </c>
       <c r="I3" t="n">
-        <v>89.39663285141508</v>
+        <v>49.81275588957449</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -22671,16 +22671,16 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>60.57395719080255</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>132.0992941419972</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>160.580851732981</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>191.8224945792435</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -22793,7 +22793,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>383.9598562683348</v>
       </c>
       <c r="G5" t="n">
         <v>375.7188605532945</v>
@@ -22802,10 +22802,10 @@
         <v>299.8909251539266</v>
       </c>
       <c r="I5" t="n">
-        <v>175.6104107424167</v>
+        <v>170.8920126085653</v>
       </c>
       <c r="J5" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -22850,7 +22850,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>346.654061694213</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -22860,7 +22860,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>126.9493066880268</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
@@ -22881,10 +22881,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
-        <v>89.39663285141508</v>
+        <v>54.53115402342591</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -22908,19 +22908,19 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100.1578341526431</v>
+        <v>60.57395719080255</v>
       </c>
       <c r="S6" t="n">
-        <v>132.0992941419972</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>160.580851732981</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>186.3575051191342</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>198.681699647694</v>
+        <v>193.2167101875847</v>
       </c>
       <c r="W6" t="n">
         <v>251.6949831609196</v>
@@ -22945,28 +22945,28 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>109.0315960563718</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>105.8371710610907</v>
       </c>
       <c r="G7" t="n">
         <v>167.9909793584588</v>
       </c>
       <c r="H7" t="n">
-        <v>162.2271725074396</v>
+        <v>154.9710608812818</v>
       </c>
       <c r="I7" t="n">
-        <v>128.1585374300363</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J7" t="n">
-        <v>53.77530315483219</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -22981,7 +22981,7 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
         <v>86.16204325169439</v>
@@ -22990,7 +22990,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S7" t="n">
-        <v>224.0165980369723</v>
+        <v>184.4327210751317</v>
       </c>
       <c r="T7" t="n">
         <v>227.9455894282815</v>
@@ -22999,7 +22999,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>212.5537663619874</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -23030,7 +23030,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>372.0105669137222</v>
+        <v>382.001266128267</v>
       </c>
       <c r="G8" t="n">
         <v>375.7188605532945</v>
@@ -23063,7 +23063,7 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>149.8691179411497</v>
@@ -23100,25 +23100,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>133.1246220264752</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>112.5795867366496</v>
       </c>
       <c r="E9" t="n">
-        <v>122.7796016274118</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>97.75964020137005</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
-        <v>72.65156727465587</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
-        <v>49.81275588957449</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
         <v>0.7465913262578567</v>
@@ -23151,7 +23151,7 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>200.1647286948216</v>
+        <v>160.580851732981</v>
       </c>
       <c r="U9" t="n">
         <v>225.9413820809748</v>
@@ -23166,7 +23166,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>166.0988188154638</v>
       </c>
     </row>
     <row r="10">
@@ -23176,7 +23176,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>140.2481032200967</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -23203,7 +23203,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
-        <v>12.29193946461858</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -23218,25 +23218,25 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>86.16204325169439</v>
+        <v>46.5781662898538</v>
       </c>
       <c r="R10" t="n">
-        <v>177.2933913771695</v>
+        <v>137.7095144153289</v>
       </c>
       <c r="S10" t="n">
-        <v>184.4327210751317</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T10" t="n">
-        <v>188.3617124664409</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U10" t="n">
         <v>286.3190293564909</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>212.5537663619874</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -23245,7 +23245,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>211.328541725937</v>
       </c>
     </row>
     <row r="11">
@@ -23270,7 +23270,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>415.302737515135</v>
+        <v>380.4372586871459</v>
       </c>
       <c r="H11" t="n">
         <v>299.8909251539266</v>
@@ -23300,13 +23300,13 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R11" t="n">
-        <v>124.9943383277053</v>
+        <v>110.2852409793091</v>
       </c>
       <c r="S11" t="n">
-        <v>169.4361926244048</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T11" t="n">
         <v>223.0958495641314</v>
@@ -23334,22 +23334,22 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>131.6677048218782</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
-        <v>133.1246220264752</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
-        <v>107.8611886027982</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
-        <v>157.6450804554009</v>
+        <v>118.0612034935604</v>
       </c>
       <c r="F12" t="n">
-        <v>145.0692123933839</v>
+        <v>105.4853354315433</v>
       </c>
       <c r="G12" t="n">
-        <v>137.3435171632106</v>
+        <v>102.4780383352215</v>
       </c>
       <c r="H12" t="n">
         <v>112.2354442364965</v>
@@ -23382,7 +23382,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>100.1578341526431</v>
+        <v>60.57395719080255</v>
       </c>
       <c r="S12" t="n">
         <v>171.6831711038378</v>
@@ -23403,7 +23403,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
-        <v>166.0988188154638</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="13">
@@ -23413,7 +23413,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>140.2481032200967</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -23428,13 +23428,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>167.9909793584588</v>
+        <v>158.0134269971945</v>
       </c>
       <c r="H13" t="n">
         <v>162.2271725074396</v>
       </c>
       <c r="I13" t="n">
-        <v>155.4504749272583</v>
+        <v>115.8665979654177</v>
       </c>
       <c r="J13" t="n">
         <v>53.77530315483219</v>
@@ -23473,16 +23473,16 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V13" t="n">
-        <v>212.5537663619874</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>246.9391213747504</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>208.6071009908305</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23507,13 +23507,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>415.302737515135</v>
+        <v>380.4372586871459</v>
       </c>
       <c r="H14" t="n">
-        <v>339.4748021157671</v>
+        <v>299.8909251539266</v>
       </c>
       <c r="I14" t="n">
-        <v>185.6011099569616</v>
+        <v>170.8920126085653</v>
       </c>
       <c r="J14" t="n">
         <v>11.94928935461252</v>
@@ -23537,22 +23537,22 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R14" t="n">
-        <v>149.8691179411497</v>
+        <v>110.2852409793091</v>
       </c>
       <c r="S14" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T14" t="n">
-        <v>183.5119726022908</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U14" t="n">
-        <v>211.7617759459959</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V14" t="n">
-        <v>288.1683815082943</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -23571,7 +23571,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>126.9493066880268</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
         <v>172.7084989883157</v>
@@ -23586,10 +23586,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>137.3435171632106</v>
+        <v>102.4780383352215</v>
       </c>
       <c r="H15" t="n">
-        <v>112.2354442364965</v>
+        <v>72.65156727465587</v>
       </c>
       <c r="I15" t="n">
         <v>89.39663285141508</v>
@@ -23619,10 +23619,10 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>100.1578341526431</v>
+        <v>60.57395719080255</v>
       </c>
       <c r="S15" t="n">
-        <v>171.6831711038378</v>
+        <v>132.0992941419972</v>
       </c>
       <c r="T15" t="n">
         <v>200.1647286948216</v>
@@ -23634,13 +23634,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
-        <v>212.111106199079</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X15" t="n">
-        <v>166.1891082416369</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
-        <v>170.8172169493152</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="16">
@@ -23677,7 +23677,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K16" t="n">
-        <v>22.26949182588285</v>
+        <v>12.29193946461858</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -23692,31 +23692,31 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q16" t="n">
-        <v>46.5781662898538</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R16" t="n">
         <v>177.2933913771695</v>
       </c>
       <c r="S16" t="n">
-        <v>224.0165980369723</v>
+        <v>184.4327210751317</v>
       </c>
       <c r="T16" t="n">
-        <v>227.9455894282815</v>
+        <v>188.3617124664409</v>
       </c>
       <c r="U16" t="n">
-        <v>286.3190293564909</v>
+        <v>246.7351523946503</v>
       </c>
       <c r="V16" t="n">
-        <v>244.8815316976702</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>246.9391213747504</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>186.1257784271966</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -23741,13 +23741,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>368.0044283100869</v>
       </c>
       <c r="G17" t="n">
-        <v>415.302737515135</v>
+        <v>371.1705651359065</v>
       </c>
       <c r="H17" t="n">
-        <v>339.4748021157671</v>
+        <v>295.3426297365386</v>
       </c>
       <c r="I17" t="n">
         <v>210.4758895704059</v>
@@ -23780,7 +23780,7 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S17" t="n">
-        <v>209.0200695862453</v>
+        <v>164.8878972070167</v>
       </c>
       <c r="T17" t="n">
         <v>223.0958495641314</v>
@@ -23789,16 +23789,16 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V17" t="n">
-        <v>283.6200860909063</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>305.1087963381844</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>325.5989282992405</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>347.366321224429</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -23820,7 +23820,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>106.1975949617593</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
         <v>137.3435171632106</v>
@@ -23865,7 +23865,7 @@
         <v>156.032556315593</v>
       </c>
       <c r="U18" t="n">
-        <v>225.9413820809748</v>
+        <v>187.0697646493503</v>
       </c>
       <c r="V18" t="n">
         <v>232.8005871494253</v>
@@ -23887,7 +23887,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>135.6998078027087</v>
+        <v>179.041529734255</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -23896,7 +23896,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>145.6435121988869</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -23935,7 +23935,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R19" t="n">
-        <v>177.2933913771695</v>
+        <v>133.1612189979409</v>
       </c>
       <c r="S19" t="n">
         <v>224.0165980369723</v>
@@ -23966,7 +23966,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -23975,22 +23975,22 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G20" t="n">
         <v>415.302737515135</v>
       </c>
       <c r="H20" t="n">
-        <v>339.4748021157671</v>
+        <v>298.998522982632</v>
       </c>
       <c r="I20" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J20" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -24011,13 +24011,13 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>146.6038018839531</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T20" t="n">
         <v>223.0958495641314</v>
@@ -24029,13 +24029,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -24045,7 +24045,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>166.5331836498673</v>
+        <v>136.7341746849847</v>
       </c>
       <c r="C21" t="n">
         <v>172.7084989883157</v>
@@ -24099,7 +24099,7 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U21" t="n">
         <v>0</v>
@@ -24111,7 +24111,7 @@
         <v>10.68069428326055</v>
       </c>
       <c r="X21" t="n">
-        <v>170.365719729939</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
         <v>205.6826957773044</v>
@@ -24178,7 +24178,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T22" t="n">
-        <v>227.9455894282815</v>
+        <v>94.7586218429135</v>
       </c>
       <c r="U22" t="n">
         <v>286.3190293564909</v>
@@ -24193,7 +24193,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>85.39768576672677</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24248,7 +24248,7 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R23" t="n">
         <v>149.8691179411497</v>
@@ -24257,13 +24257,13 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T23" t="n">
-        <v>20.80116313523413</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U23" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>115.4668728266929</v>
       </c>
       <c r="W23" t="n">
         <v>108.226679839754</v>
@@ -24272,7 +24272,7 @@
         <v>128.71681180081</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="24">
@@ -24333,22 +24333,22 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T24" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
         <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>232.8005871494253</v>
+        <v>64.75056867910465</v>
       </c>
       <c r="W24" t="n">
         <v>10.68069428326055</v>
       </c>
       <c r="X24" t="n">
-        <v>9.241409142173097</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
         <v>205.6826957773044</v>
@@ -24361,7 +24361,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>46.64501259656927</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -24406,10 +24406,10 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q25" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>177.2933913771695</v>
+        <v>130.2684670434959</v>
       </c>
       <c r="S25" t="n">
         <v>224.0165980369723</v>
@@ -24440,10 +24440,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>170.4484560200385</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -24455,10 +24455,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H26" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I26" t="n">
         <v>210.4758895704059</v>
@@ -24503,13 +24503,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>136.955583073971</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y26" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -24525,22 +24525,22 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
-        <v>147.4450655646388</v>
+        <v>53.97142908294816</v>
       </c>
       <c r="E27" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0.7465913262578567</v>
@@ -24570,19 +24570,19 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
-        <v>136.2759056302995</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T27" t="n">
         <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X27" t="n">
         <v>205.7729852034775</v>
@@ -24619,7 +24619,7 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I28" t="n">
-        <v>22.26350734189026</v>
+        <v>22.26350734189029</v>
       </c>
       <c r="J28" t="n">
         <v>93.35918011667277</v>
@@ -24677,10 +24677,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>180.4391552345834</v>
       </c>
       <c r="C29" t="n">
-        <v>130.9839860506966</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
@@ -24689,10 +24689,10 @@
         <v>140.9160811946027</v>
       </c>
       <c r="F29" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H29" t="n">
         <v>339.4748021157671</v>
@@ -24728,7 +24728,7 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T29" t="n">
         <v>223.0958495641314</v>
@@ -24746,7 +24746,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="30">
@@ -24807,7 +24807,7 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
-        <v>171.6831711038378</v>
+        <v>141.7938727127821</v>
       </c>
       <c r="T30" t="n">
         <v>200.1647286948216</v>
@@ -24819,10 +24819,10 @@
         <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>186.5643810956823</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
         <v>0</v>
@@ -24892,10 +24892,10 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U31" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>118.95067573846</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -24914,7 +24914,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C32" t="n">
         <v>124.2586028933485</v>
@@ -24923,7 +24923,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
@@ -24938,7 +24938,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J32" t="n">
-        <v>11.94928935461252</v>
+        <v>8.683973297415827</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -24965,22 +24965,22 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S32" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>10.81046392068936</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U32" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V32" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -24993,10 +24993,10 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
         <v>147.4450655646388</v>
@@ -25011,13 +25011,13 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H33" t="n">
-        <v>112.2354442364965</v>
+        <v>111.2720295162245</v>
       </c>
       <c r="I33" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -25044,22 +25044,22 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>153.4775200985846</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
         <v>0</v>
@@ -25078,13 +25078,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>15.42850543284436</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>12.23408043756325</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>167.9909793584588</v>
@@ -25154,25 +25154,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>169.6449844288197</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G35" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H35" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I35" t="n">
-        <v>207.2105735132092</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J35" t="n">
         <v>11.94928935461252</v>
@@ -25202,7 +25202,7 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T35" t="n">
         <v>223.0958495641314</v>
@@ -25211,7 +25211,7 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V35" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -25239,7 +25239,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
         <v>145.0692123933839</v>
@@ -25248,13 +25248,13 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H36" t="n">
-        <v>48.34662117197414</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I36" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J36" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -25278,25 +25278,25 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>126.7835207409946</v>
       </c>
       <c r="T36" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
         <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X36" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
         <v>205.6826957773044</v>
@@ -25357,7 +25357,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R37" t="n">
-        <v>44.10642379180146</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S37" t="n">
         <v>224.0165980369723</v>
@@ -25369,7 +25369,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>118.95067573846</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -25391,13 +25391,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D38" t="n">
-        <v>264.2941038826066</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
@@ -25412,7 +25412,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -25433,22 +25433,22 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U38" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>115.4668728266929</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -25467,13 +25467,13 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>166.5331836498673</v>
+        <v>62.97201105982761</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
         <v>157.6450804554009</v>
@@ -25515,25 +25515,25 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>73.48808282343873</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T39" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X39" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
         <v>0</v>
@@ -25597,7 +25597,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S40" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160423</v>
       </c>
       <c r="T40" t="n">
         <v>227.9455894282815</v>
@@ -25606,7 +25606,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V40" t="n">
-        <v>118.95067573846</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -25625,16 +25625,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>146.2678482032095</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>166.9843439457457</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>145.4643766119907</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
@@ -25646,7 +25646,7 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J41" t="n">
         <v>11.94928935461252</v>
@@ -25670,28 +25670,28 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U41" t="n">
-        <v>14.87965944756544</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V41" t="n">
-        <v>289.1328332305688</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>133.265107218198</v>
       </c>
       <c r="Y41" t="n">
         <v>386.2379386560536</v>
@@ -25710,16 +25710,16 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
-        <v>60.69005615290376</v>
+        <v>105.4200250242838</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H42" t="n">
         <v>112.2354442364965</v>
@@ -25728,7 +25728,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -25752,10 +25752,10 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
         <v>200.1647286948216</v>
@@ -25767,7 +25767,7 @@
         <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>15.22898970064855</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X42" t="n">
         <v>205.7729852034775</v>
@@ -25798,7 +25798,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>34.80401177309076</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H43" t="n">
         <v>162.2271725074396</v>
@@ -25840,7 +25840,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U43" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -25907,19 +25907,19 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>115.0036391131605</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S44" t="n">
-        <v>169.4361926244048</v>
+        <v>184.145289972801</v>
       </c>
       <c r="T44" t="n">
         <v>183.5119726022908</v>
       </c>
       <c r="U44" t="n">
-        <v>251.3456529078365</v>
+        <v>211.7617759459959</v>
       </c>
       <c r="V44" t="n">
         <v>288.1683815082943</v>
@@ -25941,13 +25941,13 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>166.5331836498673</v>
+        <v>126.9493066880268</v>
       </c>
       <c r="C45" t="n">
-        <v>172.7084989883157</v>
+        <v>133.1246220264752</v>
       </c>
       <c r="D45" t="n">
-        <v>147.4450655646388</v>
+        <v>107.8611886027982</v>
       </c>
       <c r="E45" t="n">
         <v>157.6450804554009</v>
@@ -25995,22 +25995,22 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T45" t="n">
-        <v>165.2992498668324</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U45" t="n">
-        <v>186.3575051191342</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V45" t="n">
-        <v>193.2167101875847</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X45" t="n">
-        <v>166.1891082416369</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
-        <v>205.6826957773044</v>
+        <v>170.8172169493152</v>
       </c>
     </row>
     <row r="46">
@@ -26023,25 +26023,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>127.6629441367872</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>106.8500856847286</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>167.9909793584588</v>
+        <v>128.4071023966182</v>
       </c>
       <c r="H46" t="n">
         <v>162.2271725074396</v>
       </c>
       <c r="I46" t="n">
-        <v>145.472922565994</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J46" t="n">
         <v>93.35918011667277</v>
@@ -26071,7 +26071,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S46" t="n">
-        <v>224.0165980369723</v>
+        <v>214.039045675708</v>
       </c>
       <c r="T46" t="n">
         <v>227.9455894282815</v>
@@ -26083,7 +26083,7 @@
         <v>212.5537663619874</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>246.9391213747504</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>355312.7236107902</v>
+        <v>355312.72361079</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>355312.7236107902</v>
+        <v>355312.72361079</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>355312.7236107901</v>
+        <v>355312.7236107902</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>355312.7236107901</v>
+        <v>355312.7236107902</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>358707.930947263</v>
+        <v>358707.9309472631</v>
       </c>
     </row>
     <row r="8">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>498720.1973742846</v>
+        <v>498720.1973742848</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>498720.1973742846</v>
+        <v>498720.1973742848</v>
       </c>
     </row>
     <row r="13">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>495485.6875005896</v>
+        <v>495485.6875005898</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>355312.7236107902</v>
+        <v>355312.7236107901</v>
       </c>
     </row>
   </sheetData>
@@ -26320,13 +26320,13 @@
         <v>82895.9595960524</v>
       </c>
       <c r="E2" t="n">
-        <v>82895.95959605239</v>
+        <v>82895.9595960524</v>
       </c>
       <c r="F2" t="n">
         <v>82895.9595960524</v>
       </c>
       <c r="G2" t="n">
-        <v>83687.10374583912</v>
+        <v>83687.10374583914</v>
       </c>
       <c r="H2" t="n">
         <v>116312.4707719327</v>
@@ -26353,7 +26353,7 @@
         <v>115558.7720105901</v>
       </c>
       <c r="P2" t="n">
-        <v>82895.95959605239</v>
+        <v>82895.9595960524</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>13265.4675990829</v>
+        <v>13265.46759908291</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>23151.83943273248</v>
+        <v>23762.29628838455</v>
       </c>
       <c r="C4" t="n">
-        <v>23151.83943273248</v>
+        <v>23762.29628838455</v>
       </c>
       <c r="D4" t="n">
-        <v>23151.83943273248</v>
+        <v>23762.29628838455</v>
       </c>
       <c r="E4" t="n">
-        <v>23151.83943273248</v>
+        <v>23762.29628838455</v>
       </c>
       <c r="F4" t="n">
-        <v>23151.83943273248</v>
+        <v>23762.29628838455</v>
       </c>
       <c r="G4" t="n">
-        <v>23379.9963513466</v>
+        <v>23996.38648677058</v>
       </c>
       <c r="H4" t="n">
-        <v>32788.77882333349</v>
+        <v>33649.84678425771</v>
       </c>
       <c r="I4" t="n">
-        <v>32788.77882333349</v>
+        <v>33649.84678425771</v>
       </c>
       <c r="J4" t="n">
-        <v>32788.77882333349</v>
+        <v>33649.84678425771</v>
       </c>
       <c r="K4" t="n">
-        <v>32788.77882333349</v>
+        <v>33649.8467842577</v>
       </c>
       <c r="L4" t="n">
-        <v>32788.77882333349</v>
+        <v>33649.84678425771</v>
       </c>
       <c r="M4" t="n">
-        <v>32788.77882333349</v>
+        <v>33649.84678425771</v>
       </c>
       <c r="N4" t="n">
-        <v>32788.77882333349</v>
+        <v>33649.84678425771</v>
       </c>
       <c r="O4" t="n">
-        <v>32571.42072620596</v>
+        <v>33426.83623350844</v>
       </c>
       <c r="P4" t="n">
-        <v>23151.83943273248</v>
+        <v>23762.29628838455</v>
       </c>
     </row>
     <row r="5">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>10444.35284495712</v>
+        <v>9833.895989305034</v>
       </c>
       <c r="C6" t="n">
-        <v>23709.82044404001</v>
+        <v>23099.36358838795</v>
       </c>
       <c r="D6" t="n">
-        <v>23709.82044404001</v>
+        <v>23099.36358838794</v>
       </c>
       <c r="E6" t="n">
-        <v>57337.42044404</v>
+        <v>56726.96358838794</v>
       </c>
       <c r="F6" t="n">
-        <v>57337.42044404001</v>
+        <v>56726.96358838794</v>
       </c>
       <c r="G6" t="n">
-        <v>56377.25176436063</v>
+        <v>55760.86162893666</v>
       </c>
       <c r="H6" t="n">
-        <v>15749.45621451249</v>
+        <v>14888.38825358829</v>
       </c>
       <c r="I6" t="n">
-        <v>68870.02318483754</v>
+        <v>68008.9552239133</v>
       </c>
       <c r="J6" t="n">
-        <v>58513.13928103371</v>
+        <v>57652.07132010951</v>
       </c>
       <c r="K6" t="n">
-        <v>68870.02318483751</v>
+        <v>68008.9552239133</v>
       </c>
       <c r="L6" t="n">
-        <v>68870.02318483753</v>
+        <v>68008.95522391329</v>
       </c>
       <c r="M6" t="n">
-        <v>68870.02318483751</v>
+        <v>68008.9552239133</v>
       </c>
       <c r="N6" t="n">
-        <v>68870.02318483756</v>
+        <v>68008.9552239133</v>
       </c>
       <c r="O6" t="n">
-        <v>68610.21888199961</v>
+        <v>67754.80337469713</v>
       </c>
       <c r="P6" t="n">
-        <v>57337.42044404</v>
+        <v>56726.96358838795</v>
       </c>
     </row>
   </sheetData>
@@ -34699,22 +34699,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
         <v>39.58387696184059</v>
       </c>
-      <c r="L2" t="n">
+      <c r="N2" t="n">
         <v>39.58387696184059</v>
       </c>
-      <c r="M2" t="n">
+      <c r="O2" t="n">
+        <v>39.58387696184059</v>
+      </c>
+      <c r="P2" t="n">
         <v>37.98452839772582</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>39.58387696184059</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34778,25 +34778,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
+        <v>39.58387696184059</v>
+      </c>
+      <c r="L3" t="n">
+        <v>39.58387696184059</v>
+      </c>
+      <c r="M3" t="n">
+        <v>39.58387696184059</v>
+      </c>
+      <c r="N3" t="n">
         <v>37.98452839772582</v>
       </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
       <c r="O3" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34936,7 +34936,7 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>37.98452839772582</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="L5" t="n">
         <v>39.58387696184059</v>
@@ -34951,7 +34951,7 @@
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>39.58387696184059</v>
+        <v>37.98452839772582</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -35018,19 +35018,19 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
         <v>37.98452839772582</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="Q6" t="n">
         <v>39.58387696184059</v>
@@ -35176,16 +35176,16 @@
         <v>0</v>
       </c>
       <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
         <v>37.98452839772582</v>
-      </c>
-      <c r="M8" t="n">
-        <v>39.58387696184059</v>
       </c>
       <c r="N8" t="n">
         <v>39.58387696184059</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="P8" t="n">
         <v>39.58387696184059</v>
@@ -35255,16 +35255,16 @@
         <v>39.58387696184059</v>
       </c>
       <c r="L9" t="n">
+        <v>37.98452839772582</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
         <v>39.58387696184059</v>
-      </c>
-      <c r="M9" t="n">
-        <v>37.98452839772582</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
@@ -35410,13 +35410,13 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="L11" t="n">
         <v>39.58387696184059</v>
       </c>
       <c r="M11" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
         <v>37.98452839772582</v>
@@ -35492,10 +35492,10 @@
         <v>39.58387696184059</v>
       </c>
       <c r="L12" t="n">
-        <v>39.58387696184059</v>
+        <v>37.98452839772582</v>
       </c>
       <c r="M12" t="n">
-        <v>37.98452839772582</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -35504,7 +35504,7 @@
         <v>39.58387696184059</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35647,19 +35647,19 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="L14" t="n">
-        <v>39.58387696184059</v>
+        <v>37.98452839772582</v>
       </c>
       <c r="M14" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
         <v>39.58387696184059</v>
       </c>
       <c r="O14" t="n">
-        <v>37.98452839772582</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
@@ -35726,25 +35726,25 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>37.98452839772582</v>
       </c>
       <c r="M15" t="n">
         <v>39.58387696184059</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="O15" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>37.98452839772582</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35884,22 +35884,22 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="L17" t="n">
         <v>44.13217237922859</v>
       </c>
       <c r="M17" t="n">
+        <v>42.34905430330019</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0</v>
+      </c>
+      <c r="P17" t="n">
         <v>44.13217237922859</v>
-      </c>
-      <c r="N17" t="n">
-        <v>44.13217237922859</v>
-      </c>
-      <c r="O17" t="n">
-        <v>42.34905430330016</v>
-      </c>
-      <c r="P17" t="n">
-        <v>0</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
@@ -35966,22 +35966,22 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>42.34905430330018</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O18" t="n">
         <v>44.13217237922859</v>
       </c>
       <c r="P18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q18" t="n">
         <v>44.13217237922859</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36203,13 +36203,13 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N21" t="n">
-        <v>55.51629994036225</v>
+        <v>217.7067518141195</v>
       </c>
       <c r="O21" t="n">
         <v>241.0142888776591</v>
@@ -36218,7 +36218,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36437,16 +36437,16 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M24" t="n">
-        <v>99.81127712997396</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>226.4350751681936</v>
       </c>
       <c r="O24" t="n">
         <v>241.0142888776591</v>
@@ -36680,10 +36680,10 @@
         <v>232.285965523585</v>
       </c>
       <c r="M27" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" t="n">
         <v>99.81127712997396</v>
-      </c>
-      <c r="N27" t="n">
-        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>241.0142888776591</v>
@@ -36838,7 +36838,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M29" t="n">
-        <v>219.1673002655597</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N29" t="n">
         <v>207.9338608153932</v>
@@ -36911,16 +36911,16 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L30" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>99.81127712997396</v>
       </c>
       <c r="N30" t="n">
-        <v>226.4350751681936</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>241.0142888776591</v>
@@ -37154,13 +37154,13 @@
         <v>232.285965523585</v>
       </c>
       <c r="M33" t="n">
-        <v>241.0142888776591</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="N33" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O33" t="n">
-        <v>240.0046611659691</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37388,22 +37388,22 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>241.0142888776591</v>
+        <v>217.7067518141195</v>
       </c>
       <c r="N36" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O36" t="n">
-        <v>240.0046611659691</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37625,13 +37625,13 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>232.285965523585</v>
+        <v>231.276337811895</v>
       </c>
       <c r="M39" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N39" t="n">
-        <v>240.0046611659691</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O39" t="n">
         <v>241.0142888776591</v>
@@ -37786,10 +37786,10 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M41" t="n">
-        <v>201.1578881078215</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N41" t="n">
-        <v>207.9338608153932</v>
+        <v>189.9244486576549</v>
       </c>
       <c r="O41" t="n">
         <v>150.7019698410586</v>
@@ -37859,13 +37859,13 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>236.4659934602711</v>
       </c>
       <c r="N42" t="n">
         <v>236.4659934602711</v>
@@ -37874,7 +37874,7 @@
         <v>236.4659934602711</v>
       </c>
       <c r="P42" t="n">
-        <v>34.37252815495957</v>
+        <v>156.8162982564931</v>
       </c>
       <c r="Q42" t="n">
         <v>70.09551364982758</v>
@@ -38020,7 +38020,7 @@
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
         <v>37.98452839772582</v>
@@ -38029,7 +38029,7 @@
         <v>39.58387696184059</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="P44" t="n">
         <v>39.58387696184059</v>
@@ -38099,10 +38099,10 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>37.98452839772582</v>
@@ -38111,10 +38111,10 @@
         <v>39.58387696184059</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
